--- a/data/master_sample_manifest.xlsx
+++ b/data/master_sample_manifest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/moorea_symbiotic_exchange_2023/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00C2CD5F-7AA6-3740-BFA1-F3CC9603D32B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{281973E3-4125-F14B-8F30-5D4FEE3836F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12840" yWindow="820" windowWidth="17180" windowHeight="17560" xr2:uid="{6B87E6CE-126B-8B47-B516-351EEAF1A0B4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Sample_ID</t>
   </si>
@@ -59,7 +59,10 @@
     <t>Transport_Method</t>
   </si>
   <si>
-    <t>Measurement</t>
+    <t>Experiment</t>
+  </si>
+  <si>
+    <t>Storage_Location</t>
   </si>
 </sst>
 </file>
@@ -424,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5716CA15-A063-CD4A-965E-FFCB3C4243EA}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -435,9 +438,10 @@
     <col min="4" max="4" width="18.83203125" customWidth="1"/>
     <col min="5" max="5" width="17.1640625" customWidth="1"/>
     <col min="8" max="8" width="26.1640625" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -461,6 +465,9 @@
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/data/master_sample_manifest.xlsx
+++ b/data/master_sample_manifest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/moorea_symbiotic_exchange_2023/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{281973E3-4125-F14B-8F30-5D4FEE3836F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED35743-69C9-1840-942D-CD58D73EE24A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12840" yWindow="820" windowWidth="17180" windowHeight="17560" xr2:uid="{6B87E6CE-126B-8B47-B516-351EEAF1A0B4}"/>
   </bookViews>
@@ -38,31 +38,31 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
-    <t>Sample_ID</t>
-  </si>
-  <si>
-    <t>Species</t>
-  </si>
-  <si>
-    <t>Lifestage</t>
-  </si>
-  <si>
-    <t>Freezer</t>
-  </si>
-  <si>
-    <t>Date_Collected</t>
-  </si>
-  <si>
-    <t>Preservation</t>
-  </si>
-  <si>
-    <t>Transport_Method</t>
-  </si>
-  <si>
-    <t>Experiment</t>
-  </si>
-  <si>
-    <t>Storage_Location</t>
+    <t>sample_id</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>lifestage</t>
+  </si>
+  <si>
+    <t>date_collected</t>
+  </si>
+  <si>
+    <t>experiment</t>
+  </si>
+  <si>
+    <t>preservation</t>
+  </si>
+  <si>
+    <t>freezer</t>
+  </si>
+  <si>
+    <t>transport_method</t>
+  </si>
+  <si>
+    <t>storage_location</t>
   </si>
 </sst>
 </file>
@@ -429,8 +429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5716CA15-A063-CD4A-965E-FFCB3C4243EA}">
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -452,19 +452,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>8</v>

--- a/data/master_sample_manifest.xlsx
+++ b/data/master_sample_manifest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/moorea_symbiotic_exchange_2023/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED35743-69C9-1840-942D-CD58D73EE24A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{369B64B5-A1E2-D140-9DC5-1156FC0AFF3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12840" yWindow="820" windowWidth="17180" windowHeight="17560" xr2:uid="{6B87E6CE-126B-8B47-B516-351EEAF1A0B4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="157">
   <si>
     <t>sample_id</t>
   </si>
@@ -53,16 +53,460 @@
     <t>experiment</t>
   </si>
   <si>
-    <t>preservation</t>
-  </si>
-  <si>
-    <t>freezer</t>
-  </si>
-  <si>
-    <t>transport_method</t>
-  </si>
-  <si>
-    <t>storage_location</t>
+    <t>ACR-A-1</t>
+  </si>
+  <si>
+    <t>ACR-A-2</t>
+  </si>
+  <si>
+    <t>ACR-A-3</t>
+  </si>
+  <si>
+    <t>ACR-A-4</t>
+  </si>
+  <si>
+    <t>ACR-A-5</t>
+  </si>
+  <si>
+    <t>ACR-R-1</t>
+  </si>
+  <si>
+    <t>ACR-R-2</t>
+  </si>
+  <si>
+    <t>ACR-R-3</t>
+  </si>
+  <si>
+    <t>ACR-R-4</t>
+  </si>
+  <si>
+    <t>ACR-R-5</t>
+  </si>
+  <si>
+    <t>ACR-R-6</t>
+  </si>
+  <si>
+    <t>ACR-R-7</t>
+  </si>
+  <si>
+    <t>ACR-R-8</t>
+  </si>
+  <si>
+    <t>ACR-R-9</t>
+  </si>
+  <si>
+    <t>ACR-R-10</t>
+  </si>
+  <si>
+    <t>POC-A-1</t>
+  </si>
+  <si>
+    <t>POC-A-2</t>
+  </si>
+  <si>
+    <t>POC-A-3</t>
+  </si>
+  <si>
+    <t>POC-A-4</t>
+  </si>
+  <si>
+    <t>POC-A-5</t>
+  </si>
+  <si>
+    <t>POC-R-1</t>
+  </si>
+  <si>
+    <t>POC-R-2</t>
+  </si>
+  <si>
+    <t>POC-R-3</t>
+  </si>
+  <si>
+    <t>POC-R-4</t>
+  </si>
+  <si>
+    <t>POC-R-5</t>
+  </si>
+  <si>
+    <t>POC-R-6</t>
+  </si>
+  <si>
+    <t>POC-R-7</t>
+  </si>
+  <si>
+    <t>POC-R-8</t>
+  </si>
+  <si>
+    <t>POC-R-9</t>
+  </si>
+  <si>
+    <t>POC-R-10</t>
+  </si>
+  <si>
+    <t>POR-A-1</t>
+  </si>
+  <si>
+    <t>POR-A-2</t>
+  </si>
+  <si>
+    <t>POR-A-3</t>
+  </si>
+  <si>
+    <t>POR-A-4</t>
+  </si>
+  <si>
+    <t>POR-A-5</t>
+  </si>
+  <si>
+    <t>POR-R-1</t>
+  </si>
+  <si>
+    <t>POR-R-2</t>
+  </si>
+  <si>
+    <t>POR-R-3</t>
+  </si>
+  <si>
+    <t>POR-R-4</t>
+  </si>
+  <si>
+    <t>POR-R-5</t>
+  </si>
+  <si>
+    <t>POR-R-6</t>
+  </si>
+  <si>
+    <t>POR-R-7</t>
+  </si>
+  <si>
+    <t>POR-R-8</t>
+  </si>
+  <si>
+    <t>POR-R-9</t>
+  </si>
+  <si>
+    <t>POR-R-10</t>
+  </si>
+  <si>
+    <t>Acropora</t>
+  </si>
+  <si>
+    <t>Adult</t>
+  </si>
+  <si>
+    <t>Recruit</t>
+  </si>
+  <si>
+    <t>Pocillopora</t>
+  </si>
+  <si>
+    <t>Porites</t>
+  </si>
+  <si>
+    <t>PI Curves</t>
+  </si>
+  <si>
+    <t>ACR-A-6</t>
+  </si>
+  <si>
+    <t>ACR-A-7</t>
+  </si>
+  <si>
+    <t>ACR-A-8</t>
+  </si>
+  <si>
+    <t>ACR-A-9</t>
+  </si>
+  <si>
+    <t>ACR-A-10</t>
+  </si>
+  <si>
+    <t>ACR-A-11</t>
+  </si>
+  <si>
+    <t>ACR-A-12</t>
+  </si>
+  <si>
+    <t>ACR-A-13</t>
+  </si>
+  <si>
+    <t>ACR-A-14</t>
+  </si>
+  <si>
+    <t>ACR-A-15</t>
+  </si>
+  <si>
+    <t>ACR-A-16</t>
+  </si>
+  <si>
+    <t>ACR-A-17</t>
+  </si>
+  <si>
+    <t>ACR-R-11</t>
+  </si>
+  <si>
+    <t>ACR-R-12</t>
+  </si>
+  <si>
+    <t>ACR-R-13</t>
+  </si>
+  <si>
+    <t>ACR-R-14</t>
+  </si>
+  <si>
+    <t>ACR-R-15</t>
+  </si>
+  <si>
+    <t>ACR-R-16</t>
+  </si>
+  <si>
+    <t>ACR-R-17</t>
+  </si>
+  <si>
+    <t>ACR-R-18</t>
+  </si>
+  <si>
+    <t>ACR-R-19</t>
+  </si>
+  <si>
+    <t>ACR-R-20</t>
+  </si>
+  <si>
+    <t>ACR-R-21</t>
+  </si>
+  <si>
+    <t>ACR-R-22</t>
+  </si>
+  <si>
+    <t>ACR-R-23</t>
+  </si>
+  <si>
+    <t>ACR-R-24</t>
+  </si>
+  <si>
+    <t>ACR-R-25</t>
+  </si>
+  <si>
+    <t>ACR-R-26</t>
+  </si>
+  <si>
+    <t>ACR-R-27</t>
+  </si>
+  <si>
+    <t>ACR-R-28</t>
+  </si>
+  <si>
+    <t>ACR-R-29</t>
+  </si>
+  <si>
+    <t>ACR-R-30</t>
+  </si>
+  <si>
+    <t>POC-A-6</t>
+  </si>
+  <si>
+    <t>POC-A-7</t>
+  </si>
+  <si>
+    <t>POC-A-8</t>
+  </si>
+  <si>
+    <t>POC-A-9</t>
+  </si>
+  <si>
+    <t>POC-A-10</t>
+  </si>
+  <si>
+    <t>POC-A-11</t>
+  </si>
+  <si>
+    <t>POC-A-12</t>
+  </si>
+  <si>
+    <t>POC-A-13</t>
+  </si>
+  <si>
+    <t>POC-A-14</t>
+  </si>
+  <si>
+    <t>POC-A-15</t>
+  </si>
+  <si>
+    <t>POC-A-16</t>
+  </si>
+  <si>
+    <t>POC-A-17</t>
+  </si>
+  <si>
+    <t>POC-R-11</t>
+  </si>
+  <si>
+    <t>POC-R-12</t>
+  </si>
+  <si>
+    <t>POC-R-13</t>
+  </si>
+  <si>
+    <t>POC-R-14</t>
+  </si>
+  <si>
+    <t>POC-R-15</t>
+  </si>
+  <si>
+    <t>POC-R-16</t>
+  </si>
+  <si>
+    <t>POC-R-17</t>
+  </si>
+  <si>
+    <t>POC-R-18</t>
+  </si>
+  <si>
+    <t>POC-R-19</t>
+  </si>
+  <si>
+    <t>POC-R-20</t>
+  </si>
+  <si>
+    <t>POC-R-21</t>
+  </si>
+  <si>
+    <t>POC-R-22</t>
+  </si>
+  <si>
+    <t>POC-R-23</t>
+  </si>
+  <si>
+    <t>POC-R-24</t>
+  </si>
+  <si>
+    <t>POC-R-25</t>
+  </si>
+  <si>
+    <t>POC-R-26</t>
+  </si>
+  <si>
+    <t>POC-R-27</t>
+  </si>
+  <si>
+    <t>POC-R-28</t>
+  </si>
+  <si>
+    <t>POC-R-29</t>
+  </si>
+  <si>
+    <t>POC-R-30</t>
+  </si>
+  <si>
+    <t>POR-A-6</t>
+  </si>
+  <si>
+    <t>POR-A-7</t>
+  </si>
+  <si>
+    <t>POR-A-8</t>
+  </si>
+  <si>
+    <t>POR-A-9</t>
+  </si>
+  <si>
+    <t>POR-A-10</t>
+  </si>
+  <si>
+    <t>POR-A-11</t>
+  </si>
+  <si>
+    <t>POR-A-12</t>
+  </si>
+  <si>
+    <t>POR-A-13</t>
+  </si>
+  <si>
+    <t>POR-A-14</t>
+  </si>
+  <si>
+    <t>POR-A-15</t>
+  </si>
+  <si>
+    <t>POR-A-16</t>
+  </si>
+  <si>
+    <t>POR-A-17</t>
+  </si>
+  <si>
+    <t>POR-R-11</t>
+  </si>
+  <si>
+    <t>POR-R-12</t>
+  </si>
+  <si>
+    <t>POR-R-13</t>
+  </si>
+  <si>
+    <t>POR-R-14</t>
+  </si>
+  <si>
+    <t>POR-R-15</t>
+  </si>
+  <si>
+    <t>POR-R-16</t>
+  </si>
+  <si>
+    <t>POR-R-17</t>
+  </si>
+  <si>
+    <t>POR-R-18</t>
+  </si>
+  <si>
+    <t>POR-R-19</t>
+  </si>
+  <si>
+    <t>POR-R-20</t>
+  </si>
+  <si>
+    <t>POR-R-21</t>
+  </si>
+  <si>
+    <t>POR-R-22</t>
+  </si>
+  <si>
+    <t>POR-R-23</t>
+  </si>
+  <si>
+    <t>POR-R-24</t>
+  </si>
+  <si>
+    <t>POR-R-25</t>
+  </si>
+  <si>
+    <t>POR-R-26</t>
+  </si>
+  <si>
+    <t>POR-R-27</t>
+  </si>
+  <si>
+    <t>POR-R-28</t>
+  </si>
+  <si>
+    <t>POR-R-29</t>
+  </si>
+  <si>
+    <t>POR-R-30</t>
+  </si>
+  <si>
+    <t>dna.tube</t>
+  </si>
+  <si>
+    <t>rna.tube</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>PR Rates</t>
+  </si>
+  <si>
+    <t>whirlpack</t>
   </si>
 </sst>
 </file>
@@ -427,21 +871,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5716CA15-A063-CD4A-965E-FFCB3C4243EA}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:K142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="18.83203125" customWidth="1"/>
     <col min="5" max="5" width="17.1640625" customWidth="1"/>
-    <col min="8" max="8" width="26.1640625" customWidth="1"/>
-    <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="6" max="6" width="11.1640625" customWidth="1"/>
+    <col min="7" max="7" width="12.5" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="10" max="10" width="26.1640625" customWidth="1"/>
+    <col min="11" max="11" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -458,16 +905,2683 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2">
+        <v>20231104</v>
+      </c>
+      <c r="E2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="B3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3">
+        <v>20231104</v>
+      </c>
+      <c r="E3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" t="s">
+        <v>154</v>
+      </c>
+      <c r="G3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4">
+        <v>20231104</v>
+      </c>
+      <c r="E4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" t="s">
+        <v>154</v>
+      </c>
+      <c r="G4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5">
+        <v>20231104</v>
+      </c>
+      <c r="E5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" t="s">
+        <v>154</v>
+      </c>
+      <c r="G5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6">
+        <v>20231104</v>
+      </c>
+      <c r="E6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" t="s">
+        <v>154</v>
+      </c>
+      <c r="G6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7">
+        <v>20231104</v>
+      </c>
+      <c r="E7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8">
+        <v>20231104</v>
+      </c>
+      <c r="E8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" t="s">
+        <v>154</v>
+      </c>
+      <c r="G8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9">
+        <v>20231104</v>
+      </c>
+      <c r="E9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" t="s">
+        <v>154</v>
+      </c>
+      <c r="G9" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10">
+        <v>20231104</v>
+      </c>
+      <c r="E10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" t="s">
+        <v>154</v>
+      </c>
+      <c r="G10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11">
+        <v>20231104</v>
+      </c>
+      <c r="E11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" t="s">
+        <v>154</v>
+      </c>
+      <c r="G11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12">
+        <v>20231104</v>
+      </c>
+      <c r="E12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" t="s">
+        <v>154</v>
+      </c>
+      <c r="G12" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13">
+        <v>20231104</v>
+      </c>
+      <c r="E13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" t="s">
+        <v>154</v>
+      </c>
+      <c r="G13" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14">
+        <v>20231104</v>
+      </c>
+      <c r="E14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" t="s">
+        <v>154</v>
+      </c>
+      <c r="G14" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15">
+        <v>20231104</v>
+      </c>
+      <c r="E15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" t="s">
+        <v>154</v>
+      </c>
+      <c r="G15" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16">
+        <v>20231104</v>
+      </c>
+      <c r="E16" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" t="s">
+        <v>154</v>
+      </c>
+      <c r="G16" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17">
+        <v>20231104</v>
+      </c>
+      <c r="E17" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" t="s">
+        <v>154</v>
+      </c>
+      <c r="G17" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18">
+        <v>20231104</v>
+      </c>
+      <c r="E18" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18" t="s">
+        <v>154</v>
+      </c>
+      <c r="G18" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19">
+        <v>20231104</v>
+      </c>
+      <c r="E19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19" t="s">
+        <v>154</v>
+      </c>
+      <c r="G19" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20">
+        <v>20231104</v>
+      </c>
+      <c r="E20" t="s">
+        <v>55</v>
+      </c>
+      <c r="F20" t="s">
+        <v>154</v>
+      </c>
+      <c r="G20" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21">
+        <v>20231104</v>
+      </c>
+      <c r="E21" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" t="s">
+        <v>154</v>
+      </c>
+      <c r="G21" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22">
+        <v>20231104</v>
+      </c>
+      <c r="E22" t="s">
+        <v>55</v>
+      </c>
+      <c r="F22" t="s">
+        <v>154</v>
+      </c>
+      <c r="G22" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23">
+        <v>20231104</v>
+      </c>
+      <c r="E23" t="s">
+        <v>55</v>
+      </c>
+      <c r="F23" t="s">
+        <v>154</v>
+      </c>
+      <c r="G23" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24">
+        <v>20231104</v>
+      </c>
+      <c r="E24" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" t="s">
+        <v>154</v>
+      </c>
+      <c r="G24" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25">
+        <v>20231104</v>
+      </c>
+      <c r="E25" t="s">
+        <v>55</v>
+      </c>
+      <c r="F25" t="s">
+        <v>154</v>
+      </c>
+      <c r="G25" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26">
+        <v>20231104</v>
+      </c>
+      <c r="E26" t="s">
+        <v>55</v>
+      </c>
+      <c r="F26" t="s">
+        <v>154</v>
+      </c>
+      <c r="G26" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27">
+        <v>20231104</v>
+      </c>
+      <c r="E27" t="s">
+        <v>55</v>
+      </c>
+      <c r="F27" t="s">
+        <v>154</v>
+      </c>
+      <c r="G27" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28">
+        <v>20231104</v>
+      </c>
+      <c r="E28" t="s">
+        <v>55</v>
+      </c>
+      <c r="F28" t="s">
+        <v>154</v>
+      </c>
+      <c r="G28" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29">
+        <v>20231104</v>
+      </c>
+      <c r="E29" t="s">
+        <v>55</v>
+      </c>
+      <c r="F29" t="s">
+        <v>154</v>
+      </c>
+      <c r="G29" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30">
+        <v>20231104</v>
+      </c>
+      <c r="E30" t="s">
+        <v>55</v>
+      </c>
+      <c r="F30" t="s">
+        <v>154</v>
+      </c>
+      <c r="G30" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31">
+        <v>20231104</v>
+      </c>
+      <c r="E31" t="s">
+        <v>55</v>
+      </c>
+      <c r="F31" t="s">
+        <v>154</v>
+      </c>
+      <c r="G31" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32">
+        <v>20231104</v>
+      </c>
+      <c r="E32" t="s">
+        <v>55</v>
+      </c>
+      <c r="F32" t="s">
+        <v>154</v>
+      </c>
+      <c r="G32" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33">
+        <v>20231104</v>
+      </c>
+      <c r="E33" t="s">
+        <v>55</v>
+      </c>
+      <c r="F33" t="s">
+        <v>154</v>
+      </c>
+      <c r="G33" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34" t="s">
+        <v>51</v>
+      </c>
+      <c r="D34">
+        <v>20231104</v>
+      </c>
+      <c r="E34" t="s">
+        <v>55</v>
+      </c>
+      <c r="F34" t="s">
+        <v>154</v>
+      </c>
+      <c r="G34" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" t="s">
+        <v>51</v>
+      </c>
+      <c r="D35">
+        <v>20231104</v>
+      </c>
+      <c r="E35" t="s">
+        <v>55</v>
+      </c>
+      <c r="F35" t="s">
+        <v>154</v>
+      </c>
+      <c r="G35" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" t="s">
+        <v>54</v>
+      </c>
+      <c r="C36" t="s">
+        <v>51</v>
+      </c>
+      <c r="D36">
+        <v>20231104</v>
+      </c>
+      <c r="E36" t="s">
+        <v>55</v>
+      </c>
+      <c r="F36" t="s">
+        <v>154</v>
+      </c>
+      <c r="G36" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37" t="s">
+        <v>52</v>
+      </c>
+      <c r="D37">
+        <v>20231104</v>
+      </c>
+      <c r="E37" t="s">
+        <v>55</v>
+      </c>
+      <c r="F37" t="s">
+        <v>154</v>
+      </c>
+      <c r="G37" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" t="s">
+        <v>52</v>
+      </c>
+      <c r="D38">
+        <v>20231104</v>
+      </c>
+      <c r="E38" t="s">
+        <v>55</v>
+      </c>
+      <c r="F38" t="s">
+        <v>154</v>
+      </c>
+      <c r="G38" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" t="s">
+        <v>54</v>
+      </c>
+      <c r="C39" t="s">
+        <v>52</v>
+      </c>
+      <c r="D39">
+        <v>20231104</v>
+      </c>
+      <c r="E39" t="s">
+        <v>55</v>
+      </c>
+      <c r="F39" t="s">
+        <v>154</v>
+      </c>
+      <c r="G39" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" t="s">
+        <v>54</v>
+      </c>
+      <c r="C40" t="s">
+        <v>52</v>
+      </c>
+      <c r="D40">
+        <v>20231104</v>
+      </c>
+      <c r="E40" t="s">
+        <v>55</v>
+      </c>
+      <c r="F40" t="s">
+        <v>154</v>
+      </c>
+      <c r="G40" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41" t="s">
+        <v>52</v>
+      </c>
+      <c r="D41">
+        <v>20231104</v>
+      </c>
+      <c r="E41" t="s">
+        <v>55</v>
+      </c>
+      <c r="F41" t="s">
+        <v>154</v>
+      </c>
+      <c r="G41" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" t="s">
+        <v>54</v>
+      </c>
+      <c r="C42" t="s">
+        <v>52</v>
+      </c>
+      <c r="D42">
+        <v>20231104</v>
+      </c>
+      <c r="E42" t="s">
+        <v>55</v>
+      </c>
+      <c r="F42" t="s">
+        <v>154</v>
+      </c>
+      <c r="G42" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" t="s">
+        <v>54</v>
+      </c>
+      <c r="C43" t="s">
+        <v>52</v>
+      </c>
+      <c r="D43">
+        <v>20231104</v>
+      </c>
+      <c r="E43" t="s">
+        <v>55</v>
+      </c>
+      <c r="F43" t="s">
+        <v>154</v>
+      </c>
+      <c r="G43" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44" t="s">
+        <v>54</v>
+      </c>
+      <c r="C44" t="s">
+        <v>52</v>
+      </c>
+      <c r="D44">
+        <v>20231104</v>
+      </c>
+      <c r="E44" t="s">
+        <v>55</v>
+      </c>
+      <c r="F44" t="s">
+        <v>154</v>
+      </c>
+      <c r="G44" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45" t="s">
+        <v>54</v>
+      </c>
+      <c r="C45" t="s">
+        <v>52</v>
+      </c>
+      <c r="D45">
+        <v>20231104</v>
+      </c>
+      <c r="E45" t="s">
+        <v>55</v>
+      </c>
+      <c r="F45" t="s">
+        <v>154</v>
+      </c>
+      <c r="G45" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46" t="s">
+        <v>54</v>
+      </c>
+      <c r="C46" t="s">
+        <v>52</v>
+      </c>
+      <c r="D46">
+        <v>20231104</v>
+      </c>
+      <c r="E46" t="s">
+        <v>55</v>
+      </c>
+      <c r="F46" t="s">
+        <v>154</v>
+      </c>
+      <c r="G46" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>56</v>
+      </c>
+      <c r="B47" t="s">
+        <v>50</v>
+      </c>
+      <c r="C47" t="s">
+        <v>51</v>
+      </c>
+      <c r="D47">
+        <v>20231106</v>
+      </c>
+      <c r="E47" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>57</v>
+      </c>
+      <c r="B48" t="s">
+        <v>50</v>
+      </c>
+      <c r="C48" t="s">
+        <v>51</v>
+      </c>
+      <c r="D48">
+        <v>20231106</v>
+      </c>
+      <c r="E48" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>58</v>
+      </c>
+      <c r="B49" t="s">
+        <v>50</v>
+      </c>
+      <c r="C49" t="s">
+        <v>51</v>
+      </c>
+      <c r="D49">
+        <v>20231106</v>
+      </c>
+      <c r="E49" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>59</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" t="s">
+        <v>51</v>
+      </c>
+      <c r="D50">
+        <v>20231106</v>
+      </c>
+      <c r="E50" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>60</v>
+      </c>
+      <c r="B51" t="s">
+        <v>50</v>
+      </c>
+      <c r="C51" t="s">
+        <v>51</v>
+      </c>
+      <c r="D51">
+        <v>20231106</v>
+      </c>
+      <c r="E51" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>61</v>
+      </c>
+      <c r="B52" t="s">
+        <v>50</v>
+      </c>
+      <c r="C52" t="s">
+        <v>51</v>
+      </c>
+      <c r="D52">
+        <v>20231106</v>
+      </c>
+      <c r="E52" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>62</v>
+      </c>
+      <c r="B53" t="s">
+        <v>50</v>
+      </c>
+      <c r="C53" t="s">
+        <v>51</v>
+      </c>
+      <c r="D53">
+        <v>20231106</v>
+      </c>
+      <c r="E53" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>63</v>
+      </c>
+      <c r="B54" t="s">
+        <v>50</v>
+      </c>
+      <c r="C54" t="s">
+        <v>51</v>
+      </c>
+      <c r="D54">
+        <v>20231106</v>
+      </c>
+      <c r="E54" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>64</v>
+      </c>
+      <c r="B55" t="s">
+        <v>50</v>
+      </c>
+      <c r="C55" t="s">
+        <v>51</v>
+      </c>
+      <c r="D55">
+        <v>20231106</v>
+      </c>
+      <c r="E55" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>65</v>
+      </c>
+      <c r="B56" t="s">
+        <v>50</v>
+      </c>
+      <c r="C56" t="s">
+        <v>51</v>
+      </c>
+      <c r="D56">
+        <v>20231106</v>
+      </c>
+      <c r="E56" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>66</v>
+      </c>
+      <c r="B57" t="s">
+        <v>50</v>
+      </c>
+      <c r="C57" t="s">
+        <v>51</v>
+      </c>
+      <c r="D57">
+        <v>20231106</v>
+      </c>
+      <c r="E57" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>67</v>
+      </c>
+      <c r="B58" t="s">
+        <v>50</v>
+      </c>
+      <c r="C58" t="s">
+        <v>51</v>
+      </c>
+      <c r="D58">
+        <v>20231106</v>
+      </c>
+      <c r="E58" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>68</v>
+      </c>
+      <c r="B59" t="s">
+        <v>50</v>
+      </c>
+      <c r="C59" t="s">
+        <v>52</v>
+      </c>
+      <c r="D59">
+        <v>20231106</v>
+      </c>
+      <c r="E59" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>69</v>
+      </c>
+      <c r="B60" t="s">
+        <v>50</v>
+      </c>
+      <c r="C60" t="s">
+        <v>52</v>
+      </c>
+      <c r="D60">
+        <v>20231106</v>
+      </c>
+      <c r="E60" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>70</v>
+      </c>
+      <c r="B61" t="s">
+        <v>50</v>
+      </c>
+      <c r="C61" t="s">
+        <v>52</v>
+      </c>
+      <c r="D61">
+        <v>20231106</v>
+      </c>
+      <c r="E61" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>71</v>
+      </c>
+      <c r="B62" t="s">
+        <v>50</v>
+      </c>
+      <c r="C62" t="s">
+        <v>52</v>
+      </c>
+      <c r="D62">
+        <v>20231106</v>
+      </c>
+      <c r="E62" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>72</v>
+      </c>
+      <c r="B63" t="s">
+        <v>50</v>
+      </c>
+      <c r="C63" t="s">
+        <v>52</v>
+      </c>
+      <c r="D63">
+        <v>20231106</v>
+      </c>
+      <c r="E63" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>73</v>
+      </c>
+      <c r="B64" t="s">
+        <v>50</v>
+      </c>
+      <c r="C64" t="s">
+        <v>52</v>
+      </c>
+      <c r="D64">
+        <v>20231106</v>
+      </c>
+      <c r="E64" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>74</v>
+      </c>
+      <c r="B65" t="s">
+        <v>50</v>
+      </c>
+      <c r="C65" t="s">
+        <v>52</v>
+      </c>
+      <c r="D65">
+        <v>20231106</v>
+      </c>
+      <c r="E65" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>75</v>
+      </c>
+      <c r="B66" t="s">
+        <v>50</v>
+      </c>
+      <c r="C66" t="s">
+        <v>52</v>
+      </c>
+      <c r="D66">
+        <v>20231106</v>
+      </c>
+      <c r="E66" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>76</v>
+      </c>
+      <c r="B67" t="s">
+        <v>50</v>
+      </c>
+      <c r="C67" t="s">
+        <v>52</v>
+      </c>
+      <c r="D67">
+        <v>20231106</v>
+      </c>
+      <c r="E67" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>77</v>
+      </c>
+      <c r="B68" t="s">
+        <v>50</v>
+      </c>
+      <c r="C68" t="s">
+        <v>52</v>
+      </c>
+      <c r="D68">
+        <v>20231106</v>
+      </c>
+      <c r="E68" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>78</v>
+      </c>
+      <c r="B69" t="s">
+        <v>50</v>
+      </c>
+      <c r="C69" t="s">
+        <v>52</v>
+      </c>
+      <c r="D69">
+        <v>20231106</v>
+      </c>
+      <c r="E69" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>79</v>
+      </c>
+      <c r="B70" t="s">
+        <v>50</v>
+      </c>
+      <c r="C70" t="s">
+        <v>52</v>
+      </c>
+      <c r="D70">
+        <v>20231106</v>
+      </c>
+      <c r="E70" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>80</v>
+      </c>
+      <c r="B71" t="s">
+        <v>50</v>
+      </c>
+      <c r="C71" t="s">
+        <v>52</v>
+      </c>
+      <c r="D71">
+        <v>20231106</v>
+      </c>
+      <c r="E71" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>81</v>
+      </c>
+      <c r="B72" t="s">
+        <v>50</v>
+      </c>
+      <c r="C72" t="s">
+        <v>52</v>
+      </c>
+      <c r="D72">
+        <v>20231106</v>
+      </c>
+      <c r="E72" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>82</v>
+      </c>
+      <c r="B73" t="s">
+        <v>50</v>
+      </c>
+      <c r="C73" t="s">
+        <v>52</v>
+      </c>
+      <c r="D73">
+        <v>20231106</v>
+      </c>
+      <c r="E73" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>83</v>
+      </c>
+      <c r="B74" t="s">
+        <v>50</v>
+      </c>
+      <c r="C74" t="s">
+        <v>52</v>
+      </c>
+      <c r="D74">
+        <v>20231106</v>
+      </c>
+      <c r="E74" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>84</v>
+      </c>
+      <c r="B75" t="s">
+        <v>50</v>
+      </c>
+      <c r="C75" t="s">
+        <v>52</v>
+      </c>
+      <c r="D75">
+        <v>20231106</v>
+      </c>
+      <c r="E75" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>85</v>
+      </c>
+      <c r="B76" t="s">
+        <v>50</v>
+      </c>
+      <c r="C76" t="s">
+        <v>52</v>
+      </c>
+      <c r="D76">
+        <v>20231106</v>
+      </c>
+      <c r="E76" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>86</v>
+      </c>
+      <c r="B77" t="s">
+        <v>50</v>
+      </c>
+      <c r="C77" t="s">
+        <v>52</v>
+      </c>
+      <c r="D77">
+        <v>20231106</v>
+      </c>
+      <c r="E77" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>87</v>
+      </c>
+      <c r="B78" t="s">
+        <v>50</v>
+      </c>
+      <c r="C78" t="s">
+        <v>52</v>
+      </c>
+      <c r="D78">
+        <v>20231106</v>
+      </c>
+      <c r="E78" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>88</v>
+      </c>
+      <c r="B79" t="s">
+        <v>53</v>
+      </c>
+      <c r="C79" t="s">
+        <v>51</v>
+      </c>
+      <c r="D79">
+        <v>20231106</v>
+      </c>
+      <c r="E79" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>89</v>
+      </c>
+      <c r="B80" t="s">
+        <v>53</v>
+      </c>
+      <c r="C80" t="s">
+        <v>51</v>
+      </c>
+      <c r="D80">
+        <v>20231106</v>
+      </c>
+      <c r="E80" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>90</v>
+      </c>
+      <c r="B81" t="s">
+        <v>53</v>
+      </c>
+      <c r="C81" t="s">
+        <v>51</v>
+      </c>
+      <c r="D81">
+        <v>20231106</v>
+      </c>
+      <c r="E81" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>91</v>
+      </c>
+      <c r="B82" t="s">
+        <v>53</v>
+      </c>
+      <c r="C82" t="s">
+        <v>51</v>
+      </c>
+      <c r="D82">
+        <v>20231106</v>
+      </c>
+      <c r="E82" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>92</v>
+      </c>
+      <c r="B83" t="s">
+        <v>53</v>
+      </c>
+      <c r="C83" t="s">
+        <v>51</v>
+      </c>
+      <c r="D83">
+        <v>20231106</v>
+      </c>
+      <c r="E83" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>93</v>
+      </c>
+      <c r="B84" t="s">
+        <v>53</v>
+      </c>
+      <c r="C84" t="s">
+        <v>51</v>
+      </c>
+      <c r="D84">
+        <v>20231106</v>
+      </c>
+      <c r="E84" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>94</v>
+      </c>
+      <c r="B85" t="s">
+        <v>53</v>
+      </c>
+      <c r="C85" t="s">
+        <v>51</v>
+      </c>
+      <c r="D85">
+        <v>20231106</v>
+      </c>
+      <c r="E85" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>95</v>
+      </c>
+      <c r="B86" t="s">
+        <v>53</v>
+      </c>
+      <c r="C86" t="s">
+        <v>51</v>
+      </c>
+      <c r="D86">
+        <v>20231106</v>
+      </c>
+      <c r="E86" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>96</v>
+      </c>
+      <c r="B87" t="s">
+        <v>53</v>
+      </c>
+      <c r="C87" t="s">
+        <v>51</v>
+      </c>
+      <c r="D87">
+        <v>20231106</v>
+      </c>
+      <c r="E87" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>97</v>
+      </c>
+      <c r="B88" t="s">
+        <v>53</v>
+      </c>
+      <c r="C88" t="s">
+        <v>51</v>
+      </c>
+      <c r="D88">
+        <v>20231106</v>
+      </c>
+      <c r="E88" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>98</v>
+      </c>
+      <c r="B89" t="s">
+        <v>53</v>
+      </c>
+      <c r="C89" t="s">
+        <v>51</v>
+      </c>
+      <c r="D89">
+        <v>20231106</v>
+      </c>
+      <c r="E89" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>99</v>
+      </c>
+      <c r="B90" t="s">
+        <v>53</v>
+      </c>
+      <c r="C90" t="s">
+        <v>51</v>
+      </c>
+      <c r="D90">
+        <v>20231106</v>
+      </c>
+      <c r="E90" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>100</v>
+      </c>
+      <c r="B91" t="s">
+        <v>53</v>
+      </c>
+      <c r="C91" t="s">
+        <v>52</v>
+      </c>
+      <c r="D91">
+        <v>20231106</v>
+      </c>
+      <c r="E91" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>101</v>
+      </c>
+      <c r="B92" t="s">
+        <v>53</v>
+      </c>
+      <c r="C92" t="s">
+        <v>52</v>
+      </c>
+      <c r="D92">
+        <v>20231106</v>
+      </c>
+      <c r="E92" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>102</v>
+      </c>
+      <c r="B93" t="s">
+        <v>53</v>
+      </c>
+      <c r="C93" t="s">
+        <v>52</v>
+      </c>
+      <c r="D93">
+        <v>20231106</v>
+      </c>
+      <c r="E93" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>103</v>
+      </c>
+      <c r="B94" t="s">
+        <v>53</v>
+      </c>
+      <c r="C94" t="s">
+        <v>52</v>
+      </c>
+      <c r="D94">
+        <v>20231106</v>
+      </c>
+      <c r="E94" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>104</v>
+      </c>
+      <c r="B95" t="s">
+        <v>53</v>
+      </c>
+      <c r="C95" t="s">
+        <v>52</v>
+      </c>
+      <c r="D95">
+        <v>20231106</v>
+      </c>
+      <c r="E95" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>105</v>
+      </c>
+      <c r="B96" t="s">
+        <v>53</v>
+      </c>
+      <c r="C96" t="s">
+        <v>52</v>
+      </c>
+      <c r="D96">
+        <v>20231106</v>
+      </c>
+      <c r="E96" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>106</v>
+      </c>
+      <c r="B97" t="s">
+        <v>53</v>
+      </c>
+      <c r="C97" t="s">
+        <v>52</v>
+      </c>
+      <c r="D97">
+        <v>20231106</v>
+      </c>
+      <c r="E97" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>107</v>
+      </c>
+      <c r="B98" t="s">
+        <v>53</v>
+      </c>
+      <c r="C98" t="s">
+        <v>52</v>
+      </c>
+      <c r="D98">
+        <v>20231106</v>
+      </c>
+      <c r="E98" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>108</v>
+      </c>
+      <c r="B99" t="s">
+        <v>53</v>
+      </c>
+      <c r="C99" t="s">
+        <v>52</v>
+      </c>
+      <c r="D99">
+        <v>20231106</v>
+      </c>
+      <c r="E99" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>109</v>
+      </c>
+      <c r="B100" t="s">
+        <v>53</v>
+      </c>
+      <c r="C100" t="s">
+        <v>52</v>
+      </c>
+      <c r="D100">
+        <v>20231106</v>
+      </c>
+      <c r="E100" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>110</v>
+      </c>
+      <c r="B101" t="s">
+        <v>53</v>
+      </c>
+      <c r="C101" t="s">
+        <v>52</v>
+      </c>
+      <c r="D101">
+        <v>20231106</v>
+      </c>
+      <c r="E101" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>111</v>
+      </c>
+      <c r="B102" t="s">
+        <v>53</v>
+      </c>
+      <c r="C102" t="s">
+        <v>52</v>
+      </c>
+      <c r="D102">
+        <v>20231106</v>
+      </c>
+      <c r="E102" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>112</v>
+      </c>
+      <c r="B103" t="s">
+        <v>53</v>
+      </c>
+      <c r="C103" t="s">
+        <v>52</v>
+      </c>
+      <c r="D103">
+        <v>20231106</v>
+      </c>
+      <c r="E103" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>113</v>
+      </c>
+      <c r="B104" t="s">
+        <v>53</v>
+      </c>
+      <c r="C104" t="s">
+        <v>52</v>
+      </c>
+      <c r="D104">
+        <v>20231106</v>
+      </c>
+      <c r="E104" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>114</v>
+      </c>
+      <c r="B105" t="s">
+        <v>53</v>
+      </c>
+      <c r="C105" t="s">
+        <v>52</v>
+      </c>
+      <c r="D105">
+        <v>20231106</v>
+      </c>
+      <c r="E105" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>115</v>
+      </c>
+      <c r="B106" t="s">
+        <v>53</v>
+      </c>
+      <c r="C106" t="s">
+        <v>52</v>
+      </c>
+      <c r="D106">
+        <v>20231106</v>
+      </c>
+      <c r="E106" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>116</v>
+      </c>
+      <c r="B107" t="s">
+        <v>53</v>
+      </c>
+      <c r="C107" t="s">
+        <v>52</v>
+      </c>
+      <c r="D107">
+        <v>20231106</v>
+      </c>
+      <c r="E107" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>117</v>
+      </c>
+      <c r="B108" t="s">
+        <v>53</v>
+      </c>
+      <c r="C108" t="s">
+        <v>52</v>
+      </c>
+      <c r="D108">
+        <v>20231106</v>
+      </c>
+      <c r="E108" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>118</v>
+      </c>
+      <c r="B109" t="s">
+        <v>53</v>
+      </c>
+      <c r="C109" t="s">
+        <v>52</v>
+      </c>
+      <c r="D109">
+        <v>20231106</v>
+      </c>
+      <c r="E109" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>119</v>
+      </c>
+      <c r="B110" t="s">
+        <v>53</v>
+      </c>
+      <c r="C110" t="s">
+        <v>52</v>
+      </c>
+      <c r="D110">
+        <v>20231106</v>
+      </c>
+      <c r="E110" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>120</v>
+      </c>
+      <c r="B111" t="s">
+        <v>54</v>
+      </c>
+      <c r="C111" t="s">
+        <v>51</v>
+      </c>
+      <c r="D111">
+        <v>20231106</v>
+      </c>
+      <c r="E111" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>121</v>
+      </c>
+      <c r="B112" t="s">
+        <v>54</v>
+      </c>
+      <c r="C112" t="s">
+        <v>51</v>
+      </c>
+      <c r="D112">
+        <v>20231106</v>
+      </c>
+      <c r="E112" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>122</v>
+      </c>
+      <c r="B113" t="s">
+        <v>54</v>
+      </c>
+      <c r="C113" t="s">
+        <v>51</v>
+      </c>
+      <c r="D113">
+        <v>20231106</v>
+      </c>
+      <c r="E113" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>123</v>
+      </c>
+      <c r="B114" t="s">
+        <v>54</v>
+      </c>
+      <c r="C114" t="s">
+        <v>51</v>
+      </c>
+      <c r="D114">
+        <v>20231106</v>
+      </c>
+      <c r="E114" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>124</v>
+      </c>
+      <c r="B115" t="s">
+        <v>54</v>
+      </c>
+      <c r="C115" t="s">
+        <v>51</v>
+      </c>
+      <c r="D115">
+        <v>20231106</v>
+      </c>
+      <c r="E115" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>125</v>
+      </c>
+      <c r="B116" t="s">
+        <v>54</v>
+      </c>
+      <c r="C116" t="s">
+        <v>51</v>
+      </c>
+      <c r="D116">
+        <v>20231106</v>
+      </c>
+      <c r="E116" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>126</v>
+      </c>
+      <c r="B117" t="s">
+        <v>54</v>
+      </c>
+      <c r="C117" t="s">
+        <v>51</v>
+      </c>
+      <c r="D117">
+        <v>20231106</v>
+      </c>
+      <c r="E117" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>127</v>
+      </c>
+      <c r="B118" t="s">
+        <v>54</v>
+      </c>
+      <c r="C118" t="s">
+        <v>51</v>
+      </c>
+      <c r="D118">
+        <v>20231106</v>
+      </c>
+      <c r="E118" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>128</v>
+      </c>
+      <c r="B119" t="s">
+        <v>54</v>
+      </c>
+      <c r="C119" t="s">
+        <v>51</v>
+      </c>
+      <c r="D119">
+        <v>20231106</v>
+      </c>
+      <c r="E119" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>129</v>
+      </c>
+      <c r="B120" t="s">
+        <v>54</v>
+      </c>
+      <c r="C120" t="s">
+        <v>51</v>
+      </c>
+      <c r="D120">
+        <v>20231106</v>
+      </c>
+      <c r="E120" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>130</v>
+      </c>
+      <c r="B121" t="s">
+        <v>54</v>
+      </c>
+      <c r="C121" t="s">
+        <v>51</v>
+      </c>
+      <c r="D121">
+        <v>20231106</v>
+      </c>
+      <c r="E121" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>131</v>
+      </c>
+      <c r="B122" t="s">
+        <v>54</v>
+      </c>
+      <c r="C122" t="s">
+        <v>51</v>
+      </c>
+      <c r="D122">
+        <v>20231106</v>
+      </c>
+      <c r="E122" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>132</v>
+      </c>
+      <c r="B123" t="s">
+        <v>54</v>
+      </c>
+      <c r="C123" t="s">
+        <v>52</v>
+      </c>
+      <c r="D123">
+        <v>20231106</v>
+      </c>
+      <c r="E123" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>133</v>
+      </c>
+      <c r="B124" t="s">
+        <v>54</v>
+      </c>
+      <c r="C124" t="s">
+        <v>52</v>
+      </c>
+      <c r="D124">
+        <v>20231106</v>
+      </c>
+      <c r="E124" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>134</v>
+      </c>
+      <c r="B125" t="s">
+        <v>54</v>
+      </c>
+      <c r="C125" t="s">
+        <v>52</v>
+      </c>
+      <c r="D125">
+        <v>20231106</v>
+      </c>
+      <c r="E125" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>135</v>
+      </c>
+      <c r="B126" t="s">
+        <v>54</v>
+      </c>
+      <c r="C126" t="s">
+        <v>52</v>
+      </c>
+      <c r="D126">
+        <v>20231106</v>
+      </c>
+      <c r="E126" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>136</v>
+      </c>
+      <c r="B127" t="s">
+        <v>54</v>
+      </c>
+      <c r="C127" t="s">
+        <v>52</v>
+      </c>
+      <c r="D127">
+        <v>20231106</v>
+      </c>
+      <c r="E127" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>137</v>
+      </c>
+      <c r="B128" t="s">
+        <v>54</v>
+      </c>
+      <c r="C128" t="s">
+        <v>52</v>
+      </c>
+      <c r="D128">
+        <v>20231106</v>
+      </c>
+      <c r="E128" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>138</v>
+      </c>
+      <c r="B129" t="s">
+        <v>54</v>
+      </c>
+      <c r="C129" t="s">
+        <v>52</v>
+      </c>
+      <c r="D129">
+        <v>20231106</v>
+      </c>
+      <c r="E129" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>139</v>
+      </c>
+      <c r="B130" t="s">
+        <v>54</v>
+      </c>
+      <c r="C130" t="s">
+        <v>52</v>
+      </c>
+      <c r="D130">
+        <v>20231106</v>
+      </c>
+      <c r="E130" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>140</v>
+      </c>
+      <c r="B131" t="s">
+        <v>54</v>
+      </c>
+      <c r="C131" t="s">
+        <v>52</v>
+      </c>
+      <c r="D131">
+        <v>20231106</v>
+      </c>
+      <c r="E131" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>141</v>
+      </c>
+      <c r="B132" t="s">
+        <v>54</v>
+      </c>
+      <c r="C132" t="s">
+        <v>52</v>
+      </c>
+      <c r="D132">
+        <v>20231106</v>
+      </c>
+      <c r="E132" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>142</v>
+      </c>
+      <c r="B133" t="s">
+        <v>54</v>
+      </c>
+      <c r="C133" t="s">
+        <v>52</v>
+      </c>
+      <c r="D133">
+        <v>20231106</v>
+      </c>
+      <c r="E133" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>143</v>
+      </c>
+      <c r="B134" t="s">
+        <v>54</v>
+      </c>
+      <c r="C134" t="s">
+        <v>52</v>
+      </c>
+      <c r="D134">
+        <v>20231106</v>
+      </c>
+      <c r="E134" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>144</v>
+      </c>
+      <c r="B135" t="s">
+        <v>54</v>
+      </c>
+      <c r="C135" t="s">
+        <v>52</v>
+      </c>
+      <c r="D135">
+        <v>20231106</v>
+      </c>
+      <c r="E135" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>145</v>
+      </c>
+      <c r="B136" t="s">
+        <v>54</v>
+      </c>
+      <c r="C136" t="s">
+        <v>52</v>
+      </c>
+      <c r="D136">
+        <v>20231106</v>
+      </c>
+      <c r="E136" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>146</v>
+      </c>
+      <c r="B137" t="s">
+        <v>54</v>
+      </c>
+      <c r="C137" t="s">
+        <v>52</v>
+      </c>
+      <c r="D137">
+        <v>20231106</v>
+      </c>
+      <c r="E137" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>147</v>
+      </c>
+      <c r="B138" t="s">
+        <v>54</v>
+      </c>
+      <c r="C138" t="s">
+        <v>52</v>
+      </c>
+      <c r="D138">
+        <v>20231106</v>
+      </c>
+      <c r="E138" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>148</v>
+      </c>
+      <c r="B139" t="s">
+        <v>54</v>
+      </c>
+      <c r="C139" t="s">
+        <v>52</v>
+      </c>
+      <c r="D139">
+        <v>20231106</v>
+      </c>
+      <c r="E139" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>149</v>
+      </c>
+      <c r="B140" t="s">
+        <v>54</v>
+      </c>
+      <c r="C140" t="s">
+        <v>52</v>
+      </c>
+      <c r="D140">
+        <v>20231106</v>
+      </c>
+      <c r="E140" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>150</v>
+      </c>
+      <c r="B141" t="s">
+        <v>54</v>
+      </c>
+      <c r="C141" t="s">
+        <v>52</v>
+      </c>
+      <c r="D141">
+        <v>20231106</v>
+      </c>
+      <c r="E141" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>151</v>
+      </c>
+      <c r="B142" t="s">
+        <v>54</v>
+      </c>
+      <c r="C142" t="s">
+        <v>52</v>
+      </c>
+      <c r="D142">
+        <v>20231106</v>
+      </c>
+      <c r="E142" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/data/master_sample_manifest.xlsx
+++ b/data/master_sample_manifest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/moorea_symbiotic_exchange_2023/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{369B64B5-A1E2-D140-9DC5-1156FC0AFF3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A0E3543-9DAE-4449-B9AF-CBA169C8A07E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12840" yWindow="820" windowWidth="17180" windowHeight="17560" xr2:uid="{6B87E6CE-126B-8B47-B516-351EEAF1A0B4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="159">
   <si>
     <t>sample_id</t>
   </si>
@@ -53,141 +53,6 @@
     <t>experiment</t>
   </si>
   <si>
-    <t>ACR-A-1</t>
-  </si>
-  <si>
-    <t>ACR-A-2</t>
-  </si>
-  <si>
-    <t>ACR-A-3</t>
-  </si>
-  <si>
-    <t>ACR-A-4</t>
-  </si>
-  <si>
-    <t>ACR-A-5</t>
-  </si>
-  <si>
-    <t>ACR-R-1</t>
-  </si>
-  <si>
-    <t>ACR-R-2</t>
-  </si>
-  <si>
-    <t>ACR-R-3</t>
-  </si>
-  <si>
-    <t>ACR-R-4</t>
-  </si>
-  <si>
-    <t>ACR-R-5</t>
-  </si>
-  <si>
-    <t>ACR-R-6</t>
-  </si>
-  <si>
-    <t>ACR-R-7</t>
-  </si>
-  <si>
-    <t>ACR-R-8</t>
-  </si>
-  <si>
-    <t>ACR-R-9</t>
-  </si>
-  <si>
-    <t>ACR-R-10</t>
-  </si>
-  <si>
-    <t>POC-A-1</t>
-  </si>
-  <si>
-    <t>POC-A-2</t>
-  </si>
-  <si>
-    <t>POC-A-3</t>
-  </si>
-  <si>
-    <t>POC-A-4</t>
-  </si>
-  <si>
-    <t>POC-A-5</t>
-  </si>
-  <si>
-    <t>POC-R-1</t>
-  </si>
-  <si>
-    <t>POC-R-2</t>
-  </si>
-  <si>
-    <t>POC-R-3</t>
-  </si>
-  <si>
-    <t>POC-R-4</t>
-  </si>
-  <si>
-    <t>POC-R-5</t>
-  </si>
-  <si>
-    <t>POC-R-6</t>
-  </si>
-  <si>
-    <t>POC-R-7</t>
-  </si>
-  <si>
-    <t>POC-R-8</t>
-  </si>
-  <si>
-    <t>POC-R-9</t>
-  </si>
-  <si>
-    <t>POC-R-10</t>
-  </si>
-  <si>
-    <t>POR-A-1</t>
-  </si>
-  <si>
-    <t>POR-A-2</t>
-  </si>
-  <si>
-    <t>POR-A-3</t>
-  </si>
-  <si>
-    <t>POR-A-4</t>
-  </si>
-  <si>
-    <t>POR-A-5</t>
-  </si>
-  <si>
-    <t>POR-R-1</t>
-  </si>
-  <si>
-    <t>POR-R-2</t>
-  </si>
-  <si>
-    <t>POR-R-3</t>
-  </si>
-  <si>
-    <t>POR-R-4</t>
-  </si>
-  <si>
-    <t>POR-R-5</t>
-  </si>
-  <si>
-    <t>POR-R-6</t>
-  </si>
-  <si>
-    <t>POR-R-7</t>
-  </si>
-  <si>
-    <t>POR-R-8</t>
-  </si>
-  <si>
-    <t>POR-R-9</t>
-  </si>
-  <si>
-    <t>POR-R-10</t>
-  </si>
-  <si>
     <t>Acropora</t>
   </si>
   <si>
@@ -206,307 +71,448 @@
     <t>PI Curves</t>
   </si>
   <si>
-    <t>ACR-A-6</t>
-  </si>
-  <si>
-    <t>ACR-A-7</t>
-  </si>
-  <si>
-    <t>ACR-A-8</t>
-  </si>
-  <si>
-    <t>ACR-A-9</t>
-  </si>
-  <si>
-    <t>ACR-A-10</t>
-  </si>
-  <si>
-    <t>ACR-A-11</t>
-  </si>
-  <si>
-    <t>ACR-A-12</t>
-  </si>
-  <si>
-    <t>ACR-A-13</t>
-  </si>
-  <si>
-    <t>ACR-A-14</t>
-  </si>
-  <si>
-    <t>ACR-A-15</t>
-  </si>
-  <si>
-    <t>ACR-A-16</t>
-  </si>
-  <si>
-    <t>ACR-A-17</t>
-  </si>
-  <si>
-    <t>ACR-R-11</t>
-  </si>
-  <si>
-    <t>ACR-R-12</t>
-  </si>
-  <si>
-    <t>ACR-R-13</t>
-  </si>
-  <si>
-    <t>ACR-R-14</t>
-  </si>
-  <si>
-    <t>ACR-R-15</t>
-  </si>
-  <si>
-    <t>ACR-R-16</t>
-  </si>
-  <si>
-    <t>ACR-R-17</t>
-  </si>
-  <si>
-    <t>ACR-R-18</t>
-  </si>
-  <si>
-    <t>ACR-R-19</t>
-  </si>
-  <si>
-    <t>ACR-R-20</t>
-  </si>
-  <si>
-    <t>ACR-R-21</t>
-  </si>
-  <si>
-    <t>ACR-R-22</t>
-  </si>
-  <si>
-    <t>ACR-R-23</t>
-  </si>
-  <si>
-    <t>ACR-R-24</t>
-  </si>
-  <si>
-    <t>ACR-R-25</t>
-  </si>
-  <si>
-    <t>ACR-R-26</t>
-  </si>
-  <si>
-    <t>ACR-R-27</t>
-  </si>
-  <si>
-    <t>ACR-R-28</t>
-  </si>
-  <si>
-    <t>ACR-R-29</t>
-  </si>
-  <si>
-    <t>ACR-R-30</t>
-  </si>
-  <si>
-    <t>POC-A-6</t>
-  </si>
-  <si>
-    <t>POC-A-7</t>
-  </si>
-  <si>
-    <t>POC-A-8</t>
-  </si>
-  <si>
-    <t>POC-A-9</t>
-  </si>
-  <si>
-    <t>POC-A-10</t>
-  </si>
-  <si>
-    <t>POC-A-11</t>
-  </si>
-  <si>
-    <t>POC-A-12</t>
-  </si>
-  <si>
-    <t>POC-A-13</t>
-  </si>
-  <si>
-    <t>POC-A-14</t>
-  </si>
-  <si>
-    <t>POC-A-15</t>
-  </si>
-  <si>
-    <t>POC-A-16</t>
-  </si>
-  <si>
-    <t>POC-A-17</t>
-  </si>
-  <si>
-    <t>POC-R-11</t>
-  </si>
-  <si>
-    <t>POC-R-12</t>
-  </si>
-  <si>
-    <t>POC-R-13</t>
-  </si>
-  <si>
-    <t>POC-R-14</t>
-  </si>
-  <si>
-    <t>POC-R-15</t>
-  </si>
-  <si>
-    <t>POC-R-16</t>
-  </si>
-  <si>
-    <t>POC-R-17</t>
-  </si>
-  <si>
-    <t>POC-R-18</t>
-  </si>
-  <si>
-    <t>POC-R-19</t>
-  </si>
-  <si>
-    <t>POC-R-20</t>
-  </si>
-  <si>
-    <t>POC-R-21</t>
-  </si>
-  <si>
-    <t>POC-R-22</t>
-  </si>
-  <si>
-    <t>POC-R-23</t>
-  </si>
-  <si>
-    <t>POC-R-24</t>
-  </si>
-  <si>
-    <t>POC-R-25</t>
-  </si>
-  <si>
-    <t>POC-R-26</t>
-  </si>
-  <si>
-    <t>POC-R-27</t>
-  </si>
-  <si>
-    <t>POC-R-28</t>
-  </si>
-  <si>
-    <t>POC-R-29</t>
-  </si>
-  <si>
-    <t>POC-R-30</t>
-  </si>
-  <si>
-    <t>POR-A-6</t>
-  </si>
-  <si>
-    <t>POR-A-7</t>
-  </si>
-  <si>
-    <t>POR-A-8</t>
-  </si>
-  <si>
-    <t>POR-A-9</t>
-  </si>
-  <si>
-    <t>POR-A-10</t>
-  </si>
-  <si>
-    <t>POR-A-11</t>
-  </si>
-  <si>
-    <t>POR-A-12</t>
-  </si>
-  <si>
-    <t>POR-A-13</t>
-  </si>
-  <si>
-    <t>POR-A-14</t>
-  </si>
-  <si>
-    <t>POR-A-15</t>
-  </si>
-  <si>
-    <t>POR-A-16</t>
-  </si>
-  <si>
-    <t>POR-A-17</t>
-  </si>
-  <si>
-    <t>POR-R-11</t>
-  </si>
-  <si>
-    <t>POR-R-12</t>
-  </si>
-  <si>
-    <t>POR-R-13</t>
-  </si>
-  <si>
-    <t>POR-R-14</t>
-  </si>
-  <si>
-    <t>POR-R-15</t>
-  </si>
-  <si>
-    <t>POR-R-16</t>
-  </si>
-  <si>
-    <t>POR-R-17</t>
-  </si>
-  <si>
-    <t>POR-R-18</t>
-  </si>
-  <si>
-    <t>POR-R-19</t>
-  </si>
-  <si>
-    <t>POR-R-20</t>
-  </si>
-  <si>
-    <t>POR-R-21</t>
-  </si>
-  <si>
-    <t>POR-R-22</t>
-  </si>
-  <si>
-    <t>POR-R-23</t>
-  </si>
-  <si>
-    <t>POR-R-24</t>
-  </si>
-  <si>
-    <t>POR-R-25</t>
-  </si>
-  <si>
-    <t>POR-R-26</t>
-  </si>
-  <si>
-    <t>POR-R-27</t>
-  </si>
-  <si>
-    <t>POR-R-28</t>
-  </si>
-  <si>
-    <t>POR-R-29</t>
-  </si>
-  <si>
-    <t>POR-R-30</t>
-  </si>
-  <si>
     <t>dna.tube</t>
   </si>
   <si>
-    <t>rna.tube</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
     <t>PR Rates</t>
   </si>
   <si>
-    <t>whirlpack</t>
+    <t>dna.location</t>
+  </si>
+  <si>
+    <t>whirlpack.location</t>
+  </si>
+  <si>
+    <t>airbrushed</t>
+  </si>
+  <si>
+    <t>slurry.location</t>
+  </si>
+  <si>
+    <t>ACR-A1</t>
+  </si>
+  <si>
+    <t>ACR-A2</t>
+  </si>
+  <si>
+    <t>ACR-A3</t>
+  </si>
+  <si>
+    <t>ACR-A4</t>
+  </si>
+  <si>
+    <t>ACR-A5</t>
+  </si>
+  <si>
+    <t>ACR-R1</t>
+  </si>
+  <si>
+    <t>ACR-R2</t>
+  </si>
+  <si>
+    <t>ACR-R3</t>
+  </si>
+  <si>
+    <t>ACR-R4</t>
+  </si>
+  <si>
+    <t>ACR-R5</t>
+  </si>
+  <si>
+    <t>ACR-R6</t>
+  </si>
+  <si>
+    <t>ACR-R7</t>
+  </si>
+  <si>
+    <t>ACR-R8</t>
+  </si>
+  <si>
+    <t>ACR-R9</t>
+  </si>
+  <si>
+    <t>ACR-R10</t>
+  </si>
+  <si>
+    <t>POC-A1</t>
+  </si>
+  <si>
+    <t>POC-A2</t>
+  </si>
+  <si>
+    <t>POC-A3</t>
+  </si>
+  <si>
+    <t>POC-A4</t>
+  </si>
+  <si>
+    <t>POC-A5</t>
+  </si>
+  <si>
+    <t>POC-R1</t>
+  </si>
+  <si>
+    <t>POC-R2</t>
+  </si>
+  <si>
+    <t>POC-R3</t>
+  </si>
+  <si>
+    <t>POC-R4</t>
+  </si>
+  <si>
+    <t>POC-R5</t>
+  </si>
+  <si>
+    <t>POC-R6</t>
+  </si>
+  <si>
+    <t>POC-R7</t>
+  </si>
+  <si>
+    <t>POC-R8</t>
+  </si>
+  <si>
+    <t>POC-R9</t>
+  </si>
+  <si>
+    <t>POC-R10</t>
+  </si>
+  <si>
+    <t>POR-A1</t>
+  </si>
+  <si>
+    <t>POR-A2</t>
+  </si>
+  <si>
+    <t>POR-A3</t>
+  </si>
+  <si>
+    <t>POR-A4</t>
+  </si>
+  <si>
+    <t>POR-A5</t>
+  </si>
+  <si>
+    <t>POR-R1</t>
+  </si>
+  <si>
+    <t>POR-R2</t>
+  </si>
+  <si>
+    <t>POR-R3</t>
+  </si>
+  <si>
+    <t>POR-R4</t>
+  </si>
+  <si>
+    <t>POR-R5</t>
+  </si>
+  <si>
+    <t>POR-R6</t>
+  </si>
+  <si>
+    <t>POR-R7</t>
+  </si>
+  <si>
+    <t>POR-R8</t>
+  </si>
+  <si>
+    <t>POR-R9</t>
+  </si>
+  <si>
+    <t>POR-R10</t>
+  </si>
+  <si>
+    <t>ACR-A6</t>
+  </si>
+  <si>
+    <t>ACR-A7</t>
+  </si>
+  <si>
+    <t>ACR-A8</t>
+  </si>
+  <si>
+    <t>ACR-A9</t>
+  </si>
+  <si>
+    <t>ACR-A10</t>
+  </si>
+  <si>
+    <t>ACR-A11</t>
+  </si>
+  <si>
+    <t>ACR-A12</t>
+  </si>
+  <si>
+    <t>ACR-A13</t>
+  </si>
+  <si>
+    <t>ACR-A14</t>
+  </si>
+  <si>
+    <t>ACR-A15</t>
+  </si>
+  <si>
+    <t>ACR-A16</t>
+  </si>
+  <si>
+    <t>ACR-A17</t>
+  </si>
+  <si>
+    <t>ACR-R11</t>
+  </si>
+  <si>
+    <t>ACR-R13</t>
+  </si>
+  <si>
+    <t>ACR-R12</t>
+  </si>
+  <si>
+    <t>ACR-R14</t>
+  </si>
+  <si>
+    <t>ACR-R15</t>
+  </si>
+  <si>
+    <t>ACR-R16</t>
+  </si>
+  <si>
+    <t>ACR-R17</t>
+  </si>
+  <si>
+    <t>ACR-R18</t>
+  </si>
+  <si>
+    <t>ACR-R19</t>
+  </si>
+  <si>
+    <t>ACR-R20</t>
+  </si>
+  <si>
+    <t>ACR-R21</t>
+  </si>
+  <si>
+    <t>ACR-R22</t>
+  </si>
+  <si>
+    <t>ACR-R23</t>
+  </si>
+  <si>
+    <t>ACR-R24</t>
+  </si>
+  <si>
+    <t>ACR-R25</t>
+  </si>
+  <si>
+    <t>ACR-R26</t>
+  </si>
+  <si>
+    <t>ACR-R27</t>
+  </si>
+  <si>
+    <t>ACR-R28</t>
+  </si>
+  <si>
+    <t>ACR-R29</t>
+  </si>
+  <si>
+    <t>ACR-R30</t>
+  </si>
+  <si>
+    <t>POC-A6</t>
+  </si>
+  <si>
+    <t>POC-A7</t>
+  </si>
+  <si>
+    <t>POC-A8</t>
+  </si>
+  <si>
+    <t>POC-A9</t>
+  </si>
+  <si>
+    <t>POC-A10</t>
+  </si>
+  <si>
+    <t>POC-A11</t>
+  </si>
+  <si>
+    <t>POC-A12</t>
+  </si>
+  <si>
+    <t>POC-A13</t>
+  </si>
+  <si>
+    <t>POC-A14</t>
+  </si>
+  <si>
+    <t>POC-A15</t>
+  </si>
+  <si>
+    <t>POC-A16</t>
+  </si>
+  <si>
+    <t>POC-A17</t>
+  </si>
+  <si>
+    <t>POC-R11</t>
+  </si>
+  <si>
+    <t>POC-R12</t>
+  </si>
+  <si>
+    <t>POC-R13</t>
+  </si>
+  <si>
+    <t>POC-R14</t>
+  </si>
+  <si>
+    <t>POC-R15</t>
+  </si>
+  <si>
+    <t>POC-R16</t>
+  </si>
+  <si>
+    <t>POC-R17</t>
+  </si>
+  <si>
+    <t>POC-R18</t>
+  </si>
+  <si>
+    <t>POC-R19</t>
+  </si>
+  <si>
+    <t>POC-R20</t>
+  </si>
+  <si>
+    <t>POC-R21</t>
+  </si>
+  <si>
+    <t>POC-R22</t>
+  </si>
+  <si>
+    <t>POC-R23</t>
+  </si>
+  <si>
+    <t>POC-R24</t>
+  </si>
+  <si>
+    <t>POC-R25</t>
+  </si>
+  <si>
+    <t>POC-R26</t>
+  </si>
+  <si>
+    <t>POC-R27</t>
+  </si>
+  <si>
+    <t>POC-R28</t>
+  </si>
+  <si>
+    <t>POC-R29</t>
+  </si>
+  <si>
+    <t>POC-R30</t>
+  </si>
+  <si>
+    <t>POR-A6</t>
+  </si>
+  <si>
+    <t>POR-A7</t>
+  </si>
+  <si>
+    <t>POR-A8</t>
+  </si>
+  <si>
+    <t>POR-A9</t>
+  </si>
+  <si>
+    <t>POR-A10</t>
+  </si>
+  <si>
+    <t>POR-A11</t>
+  </si>
+  <si>
+    <t>POR-A12</t>
+  </si>
+  <si>
+    <t>POR-A13</t>
+  </si>
+  <si>
+    <t>POR-A14</t>
+  </si>
+  <si>
+    <t>POR-A15</t>
+  </si>
+  <si>
+    <t>POR-A16</t>
+  </si>
+  <si>
+    <t>POR-A17</t>
+  </si>
+  <si>
+    <t>POR-R11</t>
+  </si>
+  <si>
+    <t>POR-R12</t>
+  </si>
+  <si>
+    <t>POR-R13</t>
+  </si>
+  <si>
+    <t>POR-R14</t>
+  </si>
+  <si>
+    <t>POR-R15</t>
+  </si>
+  <si>
+    <t>POR-R16</t>
+  </si>
+  <si>
+    <t>POR-R17</t>
+  </si>
+  <si>
+    <t>POR-R18</t>
+  </si>
+  <si>
+    <t>POR-R19</t>
+  </si>
+  <si>
+    <t>POR-R20</t>
+  </si>
+  <si>
+    <t>POR-R21</t>
+  </si>
+  <si>
+    <t>POR-R22</t>
+  </si>
+  <si>
+    <t>POR-R23</t>
+  </si>
+  <si>
+    <t>POR-R24</t>
+  </si>
+  <si>
+    <t>POR-R25</t>
+  </si>
+  <si>
+    <t>POR-R26</t>
+  </si>
+  <si>
+    <t>POR-R27</t>
+  </si>
+  <si>
+    <t>POR-R28</t>
+  </si>
+  <si>
+    <t>POR-R29</t>
+  </si>
+  <si>
+    <t>POR-R30</t>
+  </si>
+  <si>
+    <t>Molecular -40</t>
   </si>
 </sst>
 </file>
@@ -871,24 +877,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5716CA15-A063-CD4A-965E-FFCB3C4243EA}">
-  <dimension ref="A1:K142"/>
+  <dimension ref="A1:J142"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="18.83203125" customWidth="1"/>
     <col min="5" max="5" width="17.1640625" customWidth="1"/>
-    <col min="6" max="6" width="11.1640625" customWidth="1"/>
-    <col min="7" max="7" width="12.5" customWidth="1"/>
-    <col min="9" max="9" width="14" customWidth="1"/>
-    <col min="10" max="10" width="26.1640625" customWidth="1"/>
-    <col min="11" max="11" width="15" customWidth="1"/>
+    <col min="6" max="6" width="17.5" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="9" max="9" width="15.83203125" customWidth="1"/>
+    <col min="10" max="10" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -905,2683 +911,2686 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>152</v>
+        <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>153</v>
+        <v>13</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="D2">
         <v>20231104</v>
       </c>
       <c r="E2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F2" t="s">
-        <v>154</v>
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>97</v>
       </c>
       <c r="G2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="D3">
         <v>20231104</v>
       </c>
       <c r="E3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F3" t="s">
-        <v>154</v>
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>98</v>
       </c>
       <c r="G3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="D4">
         <v>20231104</v>
       </c>
       <c r="E4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F4" t="s">
-        <v>154</v>
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>99</v>
       </c>
       <c r="G4" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="D5">
         <v>20231104</v>
       </c>
       <c r="E5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F5" t="s">
-        <v>154</v>
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>100</v>
       </c>
       <c r="G5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="D6">
         <v>20231104</v>
       </c>
       <c r="E6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F6" t="s">
-        <v>154</v>
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>101</v>
       </c>
       <c r="G6" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="D7">
         <v>20231104</v>
       </c>
       <c r="E7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F7" t="s">
-        <v>154</v>
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>102</v>
       </c>
       <c r="G7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="D8">
         <v>20231104</v>
       </c>
       <c r="E8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F8" t="s">
-        <v>154</v>
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <v>103</v>
       </c>
       <c r="G8" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="D9">
         <v>20231104</v>
       </c>
       <c r="E9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F9" t="s">
-        <v>154</v>
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <v>104</v>
       </c>
       <c r="G9" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="D10">
         <v>20231104</v>
       </c>
       <c r="E10" t="s">
-        <v>55</v>
-      </c>
-      <c r="F10" t="s">
-        <v>154</v>
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <v>105</v>
       </c>
       <c r="G10" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="D11">
         <v>20231104</v>
       </c>
       <c r="E11" t="s">
-        <v>55</v>
-      </c>
-      <c r="F11" t="s">
-        <v>154</v>
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>106</v>
       </c>
       <c r="G11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="D12">
         <v>20231104</v>
       </c>
       <c r="E12" t="s">
-        <v>55</v>
-      </c>
-      <c r="F12" t="s">
-        <v>154</v>
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <v>107</v>
       </c>
       <c r="G12" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="D13">
         <v>20231104</v>
       </c>
       <c r="E13" t="s">
-        <v>55</v>
-      </c>
-      <c r="F13" t="s">
-        <v>154</v>
+        <v>10</v>
+      </c>
+      <c r="F13">
+        <v>108</v>
       </c>
       <c r="G13" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="D14">
         <v>20231104</v>
       </c>
       <c r="E14" t="s">
-        <v>55</v>
-      </c>
-      <c r="F14" t="s">
-        <v>154</v>
+        <v>10</v>
+      </c>
+      <c r="F14">
+        <v>109</v>
       </c>
       <c r="G14" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="D15">
         <v>20231104</v>
       </c>
       <c r="E15" t="s">
-        <v>55</v>
-      </c>
-      <c r="F15" t="s">
-        <v>154</v>
+        <v>10</v>
+      </c>
+      <c r="F15">
+        <v>110</v>
       </c>
       <c r="G15" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="D16">
         <v>20231104</v>
       </c>
       <c r="E16" t="s">
-        <v>55</v>
-      </c>
-      <c r="F16" t="s">
-        <v>154</v>
+        <v>10</v>
+      </c>
+      <c r="F16">
+        <v>111</v>
       </c>
       <c r="G16" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="D17">
         <v>20231104</v>
       </c>
       <c r="E17" t="s">
-        <v>55</v>
-      </c>
-      <c r="F17" t="s">
-        <v>154</v>
+        <v>10</v>
+      </c>
+      <c r="F17">
+        <v>112</v>
       </c>
       <c r="G17" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="D18">
         <v>20231104</v>
       </c>
       <c r="E18" t="s">
-        <v>55</v>
-      </c>
-      <c r="F18" t="s">
-        <v>154</v>
+        <v>10</v>
+      </c>
+      <c r="F18">
+        <v>113</v>
       </c>
       <c r="G18" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="D19">
         <v>20231104</v>
       </c>
       <c r="E19" t="s">
-        <v>55</v>
-      </c>
-      <c r="F19" t="s">
-        <v>154</v>
+        <v>10</v>
+      </c>
+      <c r="F19">
+        <v>114</v>
       </c>
       <c r="G19" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="D20">
         <v>20231104</v>
       </c>
       <c r="E20" t="s">
-        <v>55</v>
-      </c>
-      <c r="F20" t="s">
-        <v>154</v>
+        <v>10</v>
+      </c>
+      <c r="F20">
+        <v>115</v>
       </c>
       <c r="G20" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B21" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="D21">
         <v>20231104</v>
       </c>
       <c r="E21" t="s">
-        <v>55</v>
-      </c>
-      <c r="F21" t="s">
-        <v>154</v>
+        <v>10</v>
+      </c>
+      <c r="F21">
+        <v>116</v>
       </c>
       <c r="G21" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="D22">
         <v>20231104</v>
       </c>
       <c r="E22" t="s">
-        <v>55</v>
-      </c>
-      <c r="F22" t="s">
-        <v>154</v>
+        <v>10</v>
+      </c>
+      <c r="F22">
+        <v>117</v>
       </c>
       <c r="G22" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B23" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="D23">
         <v>20231104</v>
       </c>
       <c r="E23" t="s">
-        <v>55</v>
-      </c>
-      <c r="F23" t="s">
-        <v>154</v>
+        <v>10</v>
+      </c>
+      <c r="F23">
+        <v>118</v>
       </c>
       <c r="G23" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="B24" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="D24">
         <v>20231104</v>
       </c>
       <c r="E24" t="s">
-        <v>55</v>
-      </c>
-      <c r="F24" t="s">
-        <v>154</v>
+        <v>10</v>
+      </c>
+      <c r="F24">
+        <v>119</v>
       </c>
       <c r="G24" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="B25" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="D25">
         <v>20231104</v>
       </c>
       <c r="E25" t="s">
-        <v>55</v>
-      </c>
-      <c r="F25" t="s">
-        <v>154</v>
+        <v>10</v>
+      </c>
+      <c r="F25">
+        <v>120</v>
       </c>
       <c r="G25" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B26" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="D26">
         <v>20231104</v>
       </c>
       <c r="E26" t="s">
-        <v>55</v>
-      </c>
-      <c r="F26" t="s">
-        <v>154</v>
+        <v>10</v>
+      </c>
+      <c r="F26">
+        <v>121</v>
       </c>
       <c r="G26" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="B27" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="D27">
         <v>20231104</v>
       </c>
       <c r="E27" t="s">
-        <v>55</v>
-      </c>
-      <c r="F27" t="s">
-        <v>154</v>
+        <v>10</v>
+      </c>
+      <c r="F27">
+        <v>122</v>
       </c>
       <c r="G27" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="B28" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="D28">
         <v>20231104</v>
       </c>
       <c r="E28" t="s">
-        <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>154</v>
+        <v>10</v>
+      </c>
+      <c r="F28">
+        <v>123</v>
       </c>
       <c r="G28" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="B29" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="D29">
         <v>20231104</v>
       </c>
       <c r="E29" t="s">
-        <v>55</v>
-      </c>
-      <c r="F29" t="s">
-        <v>154</v>
+        <v>10</v>
+      </c>
+      <c r="F29">
+        <v>139</v>
       </c>
       <c r="G29" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="B30" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="D30">
         <v>20231104</v>
       </c>
       <c r="E30" t="s">
-        <v>55</v>
-      </c>
-      <c r="F30" t="s">
-        <v>154</v>
+        <v>10</v>
+      </c>
+      <c r="F30">
+        <v>125</v>
       </c>
       <c r="G30" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="B31" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="D31">
         <v>20231104</v>
       </c>
       <c r="E31" t="s">
-        <v>55</v>
-      </c>
-      <c r="F31" t="s">
-        <v>154</v>
+        <v>10</v>
+      </c>
+      <c r="F31">
+        <v>126</v>
       </c>
       <c r="G31" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B32" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="D32">
         <v>20231104</v>
       </c>
       <c r="E32" t="s">
-        <v>55</v>
-      </c>
-      <c r="F32" t="s">
-        <v>154</v>
+        <v>10</v>
+      </c>
+      <c r="F32">
+        <v>127</v>
       </c>
       <c r="G32" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="B33" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="D33">
         <v>20231104</v>
       </c>
       <c r="E33" t="s">
-        <v>55</v>
-      </c>
-      <c r="F33" t="s">
-        <v>154</v>
+        <v>10</v>
+      </c>
+      <c r="F33">
+        <v>128</v>
       </c>
       <c r="G33" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="B34" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="D34">
         <v>20231104</v>
       </c>
       <c r="E34" t="s">
-        <v>55</v>
-      </c>
-      <c r="F34" t="s">
-        <v>154</v>
+        <v>10</v>
+      </c>
+      <c r="F34">
+        <v>129</v>
       </c>
       <c r="G34" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B35" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="D35">
         <v>20231104</v>
       </c>
       <c r="E35" t="s">
-        <v>55</v>
-      </c>
-      <c r="F35" t="s">
-        <v>154</v>
+        <v>10</v>
+      </c>
+      <c r="F35">
+        <v>130</v>
       </c>
       <c r="G35" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="B36" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="D36">
         <v>20231104</v>
       </c>
       <c r="E36" t="s">
-        <v>55</v>
-      </c>
-      <c r="F36" t="s">
-        <v>154</v>
+        <v>10</v>
+      </c>
+      <c r="F36">
+        <v>131</v>
       </c>
       <c r="G36" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="B37" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="D37">
         <v>20231104</v>
       </c>
       <c r="E37" t="s">
-        <v>55</v>
-      </c>
-      <c r="F37" t="s">
-        <v>154</v>
+        <v>10</v>
+      </c>
+      <c r="F37">
+        <v>132</v>
       </c>
       <c r="G37" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="B38" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="D38">
         <v>20231104</v>
       </c>
       <c r="E38" t="s">
-        <v>55</v>
-      </c>
-      <c r="F38" t="s">
-        <v>154</v>
+        <v>10</v>
+      </c>
+      <c r="F38">
+        <v>133</v>
       </c>
       <c r="G38" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="B39" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="D39">
         <v>20231104</v>
       </c>
       <c r="E39" t="s">
-        <v>55</v>
-      </c>
-      <c r="F39" t="s">
-        <v>154</v>
+        <v>10</v>
+      </c>
+      <c r="F39">
+        <v>134</v>
       </c>
       <c r="G39" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="B40" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="D40">
         <v>20231104</v>
       </c>
       <c r="E40" t="s">
-        <v>55</v>
-      </c>
-      <c r="F40" t="s">
-        <v>154</v>
+        <v>10</v>
+      </c>
+      <c r="F40">
+        <v>135</v>
       </c>
       <c r="G40" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="B41" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="D41">
         <v>20231104</v>
       </c>
       <c r="E41" t="s">
-        <v>55</v>
-      </c>
-      <c r="F41" t="s">
-        <v>154</v>
+        <v>10</v>
+      </c>
+      <c r="F41">
+        <v>136</v>
       </c>
       <c r="G41" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B42" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="D42">
         <v>20231104</v>
       </c>
       <c r="E42" t="s">
-        <v>55</v>
-      </c>
-      <c r="F42" t="s">
-        <v>154</v>
+        <v>10</v>
+      </c>
+      <c r="F42">
+        <v>137</v>
       </c>
       <c r="G42" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="B43" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="D43">
         <v>20231104</v>
       </c>
       <c r="E43" t="s">
-        <v>55</v>
-      </c>
-      <c r="F43" t="s">
-        <v>154</v>
+        <v>10</v>
+      </c>
+      <c r="F43">
+        <v>138</v>
       </c>
       <c r="G43" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="B44" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="D44">
         <v>20231104</v>
       </c>
       <c r="E44" t="s">
-        <v>55</v>
-      </c>
-      <c r="F44" t="s">
-        <v>154</v>
+        <v>10</v>
+      </c>
+      <c r="F44">
+        <v>124</v>
       </c>
       <c r="G44" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="B45" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="D45">
         <v>20231104</v>
       </c>
       <c r="E45" t="s">
-        <v>55</v>
-      </c>
-      <c r="F45" t="s">
-        <v>154</v>
+        <v>10</v>
+      </c>
+      <c r="F45">
+        <v>140</v>
       </c>
       <c r="G45" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="B46" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="D46">
         <v>20231104</v>
       </c>
       <c r="E46" t="s">
-        <v>55</v>
-      </c>
-      <c r="F46" t="s">
-        <v>154</v>
+        <v>10</v>
+      </c>
+      <c r="F46">
+        <v>141</v>
       </c>
       <c r="G46" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B47" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="C47" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="D47">
         <v>20231106</v>
       </c>
       <c r="E47" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B48" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="C48" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="D48">
         <v>20231106</v>
       </c>
       <c r="E48" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B49" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="C49" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="D49">
         <v>20231106</v>
       </c>
       <c r="E49" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B50" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="C50" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="D50">
         <v>20231106</v>
       </c>
       <c r="E50" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B51" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="C51" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="D51">
         <v>20231106</v>
       </c>
       <c r="E51" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B52" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="C52" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="D52">
         <v>20231106</v>
       </c>
       <c r="E52" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B53" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="C53" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="D53">
         <v>20231106</v>
       </c>
       <c r="E53" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B54" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="C54" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="D54">
         <v>20231106</v>
       </c>
       <c r="E54" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B55" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="C55" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="D55">
         <v>20231106</v>
       </c>
       <c r="E55" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B56" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="C56" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="D56">
         <v>20231106</v>
       </c>
       <c r="E56" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B57" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="C57" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="D57">
         <v>20231106</v>
       </c>
       <c r="E57" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B58" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="C58" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="D58">
         <v>20231106</v>
       </c>
       <c r="E58" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B59" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="C59" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="D59">
         <v>20231106</v>
       </c>
       <c r="E59" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="B60" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="C60" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="D60">
         <v>20231106</v>
       </c>
       <c r="E60" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B61" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="C61" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="D61">
         <v>20231106</v>
       </c>
       <c r="E61" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B62" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="C62" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="D62">
         <v>20231106</v>
       </c>
       <c r="E62" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B63" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="C63" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="D63">
         <v>20231106</v>
       </c>
       <c r="E63" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B64" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="C64" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="D64">
         <v>20231106</v>
       </c>
       <c r="E64" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B65" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="C65" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="D65">
         <v>20231106</v>
       </c>
       <c r="E65" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B66" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="C66" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="D66">
         <v>20231106</v>
       </c>
       <c r="E66" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B67" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="C67" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="D67">
         <v>20231106</v>
       </c>
       <c r="E67" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B68" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="C68" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="D68">
         <v>20231106</v>
       </c>
       <c r="E68" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B69" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="C69" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="D69">
         <v>20231106</v>
       </c>
       <c r="E69" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B70" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="C70" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="D70">
         <v>20231106</v>
       </c>
       <c r="E70" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B71" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="C71" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="D71">
         <v>20231106</v>
       </c>
       <c r="E71" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B72" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="C72" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="D72">
         <v>20231106</v>
       </c>
       <c r="E72" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B73" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="C73" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="D73">
         <v>20231106</v>
       </c>
       <c r="E73" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B74" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="C74" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="D74">
         <v>20231106</v>
       </c>
       <c r="E74" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B75" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="C75" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="D75">
         <v>20231106</v>
       </c>
       <c r="E75" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B76" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="C76" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="D76">
         <v>20231106</v>
       </c>
       <c r="E76" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B77" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="C77" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="D77">
         <v>20231106</v>
       </c>
       <c r="E77" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B78" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="C78" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="D78">
         <v>20231106</v>
       </c>
       <c r="E78" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B79" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="D79">
         <v>20231106</v>
       </c>
       <c r="E79" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B80" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="D80">
         <v>20231106</v>
       </c>
       <c r="E80" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B81" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="D81">
         <v>20231106</v>
       </c>
       <c r="E81" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B82" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="D82">
         <v>20231106</v>
       </c>
       <c r="E82" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B83" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="D83">
         <v>20231106</v>
       </c>
       <c r="E83" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B84" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="D84">
         <v>20231106</v>
       </c>
       <c r="E84" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B85" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="D85">
         <v>20231106</v>
       </c>
       <c r="E85" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B86" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="D86">
         <v>20231106</v>
       </c>
       <c r="E86" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B87" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="D87">
         <v>20231106</v>
       </c>
       <c r="E87" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B88" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="D88">
         <v>20231106</v>
       </c>
       <c r="E88" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B89" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="D89">
         <v>20231106</v>
       </c>
       <c r="E89" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B90" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="D90">
         <v>20231106</v>
       </c>
       <c r="E90" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B91" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="D91">
         <v>20231106</v>
       </c>
       <c r="E91" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B92" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="D92">
         <v>20231106</v>
       </c>
       <c r="E92" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B93" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="D93">
         <v>20231106</v>
       </c>
       <c r="E93" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B94" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="D94">
         <v>20231106</v>
       </c>
       <c r="E94" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B95" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="D95">
         <v>20231106</v>
       </c>
       <c r="E95" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B96" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="D96">
         <v>20231106</v>
       </c>
       <c r="E96" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B97" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="D97">
         <v>20231106</v>
       </c>
       <c r="E97" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B98" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="D98">
         <v>20231106</v>
       </c>
       <c r="E98" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B99" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="D99">
         <v>20231106</v>
       </c>
       <c r="E99" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B100" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="D100">
         <v>20231106</v>
       </c>
       <c r="E100" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B101" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="D101">
         <v>20231106</v>
       </c>
       <c r="E101" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B102" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="D102">
         <v>20231106</v>
       </c>
       <c r="E102" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B103" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="D103">
         <v>20231106</v>
       </c>
       <c r="E103" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B104" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="D104">
         <v>20231106</v>
       </c>
       <c r="E104" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B105" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="D105">
         <v>20231106</v>
       </c>
       <c r="E105" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B106" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="D106">
         <v>20231106</v>
       </c>
       <c r="E106" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B107" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="D107">
         <v>20231106</v>
       </c>
       <c r="E107" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B108" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="D108">
         <v>20231106</v>
       </c>
       <c r="E108" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="B109" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="D109">
         <v>20231106</v>
       </c>
       <c r="E109" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B110" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="D110">
         <v>20231106</v>
       </c>
       <c r="E110" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B111" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="D111">
         <v>20231106</v>
       </c>
       <c r="E111" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B112" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="D112">
         <v>20231106</v>
       </c>
       <c r="E112" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="B113" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="D113">
         <v>20231106</v>
       </c>
       <c r="E113" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B114" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="D114">
         <v>20231106</v>
       </c>
       <c r="E114" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="B115" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="D115">
         <v>20231106</v>
       </c>
       <c r="E115" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B116" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="D116">
         <v>20231106</v>
       </c>
       <c r="E116" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="B117" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="D117">
         <v>20231106</v>
       </c>
       <c r="E117" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B118" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="D118">
         <v>20231106</v>
       </c>
       <c r="E118" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="B119" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="D119">
         <v>20231106</v>
       </c>
       <c r="E119" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B120" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="D120">
         <v>20231106</v>
       </c>
       <c r="E120" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B121" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="D121">
         <v>20231106</v>
       </c>
       <c r="E121" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B122" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="D122">
         <v>20231106</v>
       </c>
       <c r="E122" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B123" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="D123">
         <v>20231106</v>
       </c>
       <c r="E123" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B124" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="D124">
         <v>20231106</v>
       </c>
       <c r="E124" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="B125" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="D125">
         <v>20231106</v>
       </c>
       <c r="E125" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B126" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="D126">
         <v>20231106</v>
       </c>
       <c r="E126" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B127" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="D127">
         <v>20231106</v>
       </c>
       <c r="E127" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B128" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="D128">
         <v>20231106</v>
       </c>
       <c r="E128" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B129" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="D129">
         <v>20231106</v>
       </c>
       <c r="E129" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B130" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="D130">
         <v>20231106</v>
       </c>
       <c r="E130" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="B131" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="D131">
         <v>20231106</v>
       </c>
       <c r="E131" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B132" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="D132">
         <v>20231106</v>
       </c>
       <c r="E132" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="B133" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="D133">
         <v>20231106</v>
       </c>
       <c r="E133" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B134" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="D134">
         <v>20231106</v>
       </c>
       <c r="E134" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="B135" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="D135">
         <v>20231106</v>
       </c>
       <c r="E135" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B136" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="D136">
         <v>20231106</v>
       </c>
       <c r="E136" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="B137" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="D137">
         <v>20231106</v>
       </c>
       <c r="E137" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B138" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="D138">
         <v>20231106</v>
       </c>
       <c r="E138" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B139" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="D139">
         <v>20231106</v>
       </c>
       <c r="E139" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B140" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="D140">
         <v>20231106</v>
       </c>
       <c r="E140" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="B141" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="C141" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="D141">
         <v>20231106</v>
       </c>
       <c r="E141" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B142" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="D142">
         <v>20231106</v>
       </c>
       <c r="E142" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/data/master_sample_manifest.xlsx
+++ b/data/master_sample_manifest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/moorea_symbiotic_exchange_2023/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A0E3543-9DAE-4449-B9AF-CBA169C8A07E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A41489-98D6-1648-B981-932A614540E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12840" yWindow="820" windowWidth="17180" windowHeight="17560" xr2:uid="{6B87E6CE-126B-8B47-B516-351EEAF1A0B4}"/>
+    <workbookView xWindow="7000" yWindow="820" windowWidth="23020" windowHeight="17560" xr2:uid="{6B87E6CE-126B-8B47-B516-351EEAF1A0B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1390" uniqueCount="270">
   <si>
     <t>sample_id</t>
   </si>
@@ -513,13 +513,346 @@
   </si>
   <si>
     <t>Molecular -40</t>
+  </si>
+  <si>
+    <t>ACR-A18</t>
+  </si>
+  <si>
+    <t>ACR-A19</t>
+  </si>
+  <si>
+    <t>ACR-A20</t>
+  </si>
+  <si>
+    <t>ACR-A21</t>
+  </si>
+  <si>
+    <t>ACR-A22</t>
+  </si>
+  <si>
+    <t>ACR-A23</t>
+  </si>
+  <si>
+    <t>ACR-A24</t>
+  </si>
+  <si>
+    <t>ACR-A25</t>
+  </si>
+  <si>
+    <t>ACR-A26</t>
+  </si>
+  <si>
+    <t>ACR-A27</t>
+  </si>
+  <si>
+    <t>ACR-A28</t>
+  </si>
+  <si>
+    <t>ACR-A29</t>
+  </si>
+  <si>
+    <t>ACR-A30</t>
+  </si>
+  <si>
+    <t>ACR-A31</t>
+  </si>
+  <si>
+    <t>ACR-A32</t>
+  </si>
+  <si>
+    <t>ACR-R31</t>
+  </si>
+  <si>
+    <t>ACR-R32</t>
+  </si>
+  <si>
+    <t>ACR-R33</t>
+  </si>
+  <si>
+    <t>ACR-R34</t>
+  </si>
+  <si>
+    <t>ACR-R35</t>
+  </si>
+  <si>
+    <t>ACR-R36</t>
+  </si>
+  <si>
+    <t>ACR-R37</t>
+  </si>
+  <si>
+    <t>ACR-R38</t>
+  </si>
+  <si>
+    <t>ACR-R39</t>
+  </si>
+  <si>
+    <t>ACR-R40</t>
+  </si>
+  <si>
+    <t>ACR-R41</t>
+  </si>
+  <si>
+    <t>ACR-R42</t>
+  </si>
+  <si>
+    <t>ACR-R43</t>
+  </si>
+  <si>
+    <t>ACR-R44</t>
+  </si>
+  <si>
+    <t>ACR-R45</t>
+  </si>
+  <si>
+    <t>ACR-R46</t>
+  </si>
+  <si>
+    <t>ACR-R47</t>
+  </si>
+  <si>
+    <t>ACR-R48</t>
+  </si>
+  <si>
+    <t>ACR-R49</t>
+  </si>
+  <si>
+    <t>ACR-R50</t>
+  </si>
+  <si>
+    <t>ACR-R51</t>
+  </si>
+  <si>
+    <t>POC-A18</t>
+  </si>
+  <si>
+    <t>POC-A19</t>
+  </si>
+  <si>
+    <t>POC-A20</t>
+  </si>
+  <si>
+    <t>POC-A21</t>
+  </si>
+  <si>
+    <t>POC-A22</t>
+  </si>
+  <si>
+    <t>POC-A23</t>
+  </si>
+  <si>
+    <t>POC-A24</t>
+  </si>
+  <si>
+    <t>POC-A25</t>
+  </si>
+  <si>
+    <t>POC-A26</t>
+  </si>
+  <si>
+    <t>POC-A27</t>
+  </si>
+  <si>
+    <t>POC-A28</t>
+  </si>
+  <si>
+    <t>POC-A29</t>
+  </si>
+  <si>
+    <t>POC-A30</t>
+  </si>
+  <si>
+    <t>POC-A31</t>
+  </si>
+  <si>
+    <t>POC-A32</t>
+  </si>
+  <si>
+    <t>POC-R31</t>
+  </si>
+  <si>
+    <t>POC-R32</t>
+  </si>
+  <si>
+    <t>POC-R33</t>
+  </si>
+  <si>
+    <t>POC-R34</t>
+  </si>
+  <si>
+    <t>POC-R35</t>
+  </si>
+  <si>
+    <t>POC-R37</t>
+  </si>
+  <si>
+    <t>POC-R38</t>
+  </si>
+  <si>
+    <t>POC-R36</t>
+  </si>
+  <si>
+    <t>POC-R39</t>
+  </si>
+  <si>
+    <t>POC-R40</t>
+  </si>
+  <si>
+    <t>POC-R41</t>
+  </si>
+  <si>
+    <t>POC-R42</t>
+  </si>
+  <si>
+    <t>POC-R43</t>
+  </si>
+  <si>
+    <t>POC-R44</t>
+  </si>
+  <si>
+    <t>POC-R45</t>
+  </si>
+  <si>
+    <t>POC-R46</t>
+  </si>
+  <si>
+    <t>POC-R47</t>
+  </si>
+  <si>
+    <t>POC-R48</t>
+  </si>
+  <si>
+    <t>POC-R49</t>
+  </si>
+  <si>
+    <t>POC-R50</t>
+  </si>
+  <si>
+    <t>POC-R51</t>
+  </si>
+  <si>
+    <t>POR-A18</t>
+  </si>
+  <si>
+    <t>POR-A19</t>
+  </si>
+  <si>
+    <t>POR-A20</t>
+  </si>
+  <si>
+    <t>POR-A21</t>
+  </si>
+  <si>
+    <t>POR-A22</t>
+  </si>
+  <si>
+    <t>POR-A23</t>
+  </si>
+  <si>
+    <t>POR-A24</t>
+  </si>
+  <si>
+    <t>POR-A25</t>
+  </si>
+  <si>
+    <t>POR-A26</t>
+  </si>
+  <si>
+    <t>POR-A27</t>
+  </si>
+  <si>
+    <t>POR-A28</t>
+  </si>
+  <si>
+    <t>POR-A29</t>
+  </si>
+  <si>
+    <t>POR-A30</t>
+  </si>
+  <si>
+    <t>POR-A31</t>
+  </si>
+  <si>
+    <t>POR-A32</t>
+  </si>
+  <si>
+    <t>POR-R31</t>
+  </si>
+  <si>
+    <t>POR-R32</t>
+  </si>
+  <si>
+    <t>POR-R33</t>
+  </si>
+  <si>
+    <t>POR-R34</t>
+  </si>
+  <si>
+    <t>POR-R35</t>
+  </si>
+  <si>
+    <t>POR-R36</t>
+  </si>
+  <si>
+    <t>POR-R37</t>
+  </si>
+  <si>
+    <t>POR-R38</t>
+  </si>
+  <si>
+    <t>POR-R39</t>
+  </si>
+  <si>
+    <t>POR-R40</t>
+  </si>
+  <si>
+    <t>POR-R41</t>
+  </si>
+  <si>
+    <t>POR-R42</t>
+  </si>
+  <si>
+    <t>POR-R43</t>
+  </si>
+  <si>
+    <t>POR-R44</t>
+  </si>
+  <si>
+    <t>POR-R45</t>
+  </si>
+  <si>
+    <t>POR-R46</t>
+  </si>
+  <si>
+    <t>POR-R47</t>
+  </si>
+  <si>
+    <t>POR-R48</t>
+  </si>
+  <si>
+    <t>POR-R49</t>
+  </si>
+  <si>
+    <t>POR-R50</t>
+  </si>
+  <si>
+    <t>POR-R51</t>
+  </si>
+  <si>
+    <t>Isotopes</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Biocode -40</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -538,6 +871,13 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -560,9 +900,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -877,10 +1218,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5716CA15-A063-CD4A-965E-FFCB3C4243EA}">
-  <dimension ref="A1:J142"/>
+  <dimension ref="A1:J250"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G141" sqref="G141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -889,7 +1231,7 @@
     <col min="5" max="5" width="17.1640625" customWidth="1"/>
     <col min="6" max="6" width="17.5" customWidth="1"/>
     <col min="7" max="7" width="17.6640625" customWidth="1"/>
-    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="8" max="8" width="19.5" customWidth="1"/>
     <col min="9" max="9" width="15.83203125" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
   </cols>
@@ -948,6 +1290,15 @@
       <c r="G2" t="s">
         <v>158</v>
       </c>
+      <c r="H2" t="s">
+        <v>268</v>
+      </c>
+      <c r="I2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J2" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -971,6 +1322,15 @@
       <c r="G3" t="s">
         <v>158</v>
       </c>
+      <c r="H3" t="s">
+        <v>268</v>
+      </c>
+      <c r="I3" t="s">
+        <v>268</v>
+      </c>
+      <c r="J3" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -994,6 +1354,15 @@
       <c r="G4" t="s">
         <v>158</v>
       </c>
+      <c r="H4" t="s">
+        <v>268</v>
+      </c>
+      <c r="I4" t="s">
+        <v>268</v>
+      </c>
+      <c r="J4" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -1017,6 +1386,15 @@
       <c r="G5" t="s">
         <v>158</v>
       </c>
+      <c r="H5" t="s">
+        <v>268</v>
+      </c>
+      <c r="I5" t="s">
+        <v>268</v>
+      </c>
+      <c r="J5" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -1040,6 +1418,15 @@
       <c r="G6" t="s">
         <v>158</v>
       </c>
+      <c r="H6" t="s">
+        <v>268</v>
+      </c>
+      <c r="I6" t="s">
+        <v>268</v>
+      </c>
+      <c r="J6" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -1063,6 +1450,15 @@
       <c r="G7" t="s">
         <v>158</v>
       </c>
+      <c r="H7" t="s">
+        <v>268</v>
+      </c>
+      <c r="I7" t="s">
+        <v>268</v>
+      </c>
+      <c r="J7" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -1086,6 +1482,15 @@
       <c r="G8" t="s">
         <v>158</v>
       </c>
+      <c r="H8" t="s">
+        <v>268</v>
+      </c>
+      <c r="I8" t="s">
+        <v>268</v>
+      </c>
+      <c r="J8" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -1109,6 +1514,15 @@
       <c r="G9" t="s">
         <v>158</v>
       </c>
+      <c r="H9" t="s">
+        <v>268</v>
+      </c>
+      <c r="I9" t="s">
+        <v>268</v>
+      </c>
+      <c r="J9" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -1132,6 +1546,15 @@
       <c r="G10" t="s">
         <v>158</v>
       </c>
+      <c r="H10" t="s">
+        <v>268</v>
+      </c>
+      <c r="I10" t="s">
+        <v>268</v>
+      </c>
+      <c r="J10" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -1155,6 +1578,15 @@
       <c r="G11" t="s">
         <v>158</v>
       </c>
+      <c r="H11" t="s">
+        <v>268</v>
+      </c>
+      <c r="I11" t="s">
+        <v>268</v>
+      </c>
+      <c r="J11" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -1178,6 +1610,15 @@
       <c r="G12" t="s">
         <v>158</v>
       </c>
+      <c r="H12" t="s">
+        <v>268</v>
+      </c>
+      <c r="I12" t="s">
+        <v>268</v>
+      </c>
+      <c r="J12" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -1201,6 +1642,15 @@
       <c r="G13" t="s">
         <v>158</v>
       </c>
+      <c r="H13" t="s">
+        <v>268</v>
+      </c>
+      <c r="I13" t="s">
+        <v>268</v>
+      </c>
+      <c r="J13" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -1224,6 +1674,15 @@
       <c r="G14" t="s">
         <v>158</v>
       </c>
+      <c r="H14" t="s">
+        <v>268</v>
+      </c>
+      <c r="I14" t="s">
+        <v>268</v>
+      </c>
+      <c r="J14" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -1247,6 +1706,15 @@
       <c r="G15" t="s">
         <v>158</v>
       </c>
+      <c r="H15" t="s">
+        <v>268</v>
+      </c>
+      <c r="I15" t="s">
+        <v>268</v>
+      </c>
+      <c r="J15" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -1270,8 +1738,17 @@
       <c r="G16" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H16" t="s">
+        <v>268</v>
+      </c>
+      <c r="I16" t="s">
+        <v>268</v>
+      </c>
+      <c r="J16" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -1293,8 +1770,17 @@
       <c r="G17" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H17" t="s">
+        <v>268</v>
+      </c>
+      <c r="I17" t="s">
+        <v>268</v>
+      </c>
+      <c r="J17" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -1316,8 +1802,17 @@
       <c r="G18" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H18" t="s">
+        <v>268</v>
+      </c>
+      <c r="I18" t="s">
+        <v>268</v>
+      </c>
+      <c r="J18" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>34</v>
       </c>
@@ -1339,8 +1834,17 @@
       <c r="G19" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H19" t="s">
+        <v>268</v>
+      </c>
+      <c r="I19" t="s">
+        <v>268</v>
+      </c>
+      <c r="J19" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -1362,8 +1866,17 @@
       <c r="G20" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H20" t="s">
+        <v>268</v>
+      </c>
+      <c r="I20" t="s">
+        <v>268</v>
+      </c>
+      <c r="J20" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>36</v>
       </c>
@@ -1385,8 +1898,17 @@
       <c r="G21" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H21" t="s">
+        <v>268</v>
+      </c>
+      <c r="I21" t="s">
+        <v>268</v>
+      </c>
+      <c r="J21" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>37</v>
       </c>
@@ -1408,8 +1930,17 @@
       <c r="G22" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H22" t="s">
+        <v>268</v>
+      </c>
+      <c r="I22" t="s">
+        <v>268</v>
+      </c>
+      <c r="J22" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>38</v>
       </c>
@@ -1431,8 +1962,17 @@
       <c r="G23" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H23" t="s">
+        <v>268</v>
+      </c>
+      <c r="I23" t="s">
+        <v>268</v>
+      </c>
+      <c r="J23" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>39</v>
       </c>
@@ -1454,8 +1994,17 @@
       <c r="G24" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H24" t="s">
+        <v>268</v>
+      </c>
+      <c r="I24" t="s">
+        <v>268</v>
+      </c>
+      <c r="J24" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>40</v>
       </c>
@@ -1477,8 +2026,17 @@
       <c r="G25" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H25" t="s">
+        <v>268</v>
+      </c>
+      <c r="I25" t="s">
+        <v>268</v>
+      </c>
+      <c r="J25" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>41</v>
       </c>
@@ -1500,8 +2058,17 @@
       <c r="G26" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H26" t="s">
+        <v>268</v>
+      </c>
+      <c r="I26" t="s">
+        <v>268</v>
+      </c>
+      <c r="J26" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>42</v>
       </c>
@@ -1523,8 +2090,17 @@
       <c r="G27" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H27" t="s">
+        <v>268</v>
+      </c>
+      <c r="I27" t="s">
+        <v>268</v>
+      </c>
+      <c r="J27" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>43</v>
       </c>
@@ -1546,8 +2122,17 @@
       <c r="G28" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H28" t="s">
+        <v>268</v>
+      </c>
+      <c r="I28" t="s">
+        <v>268</v>
+      </c>
+      <c r="J28" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>44</v>
       </c>
@@ -1569,8 +2154,17 @@
       <c r="G29" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H29" t="s">
+        <v>268</v>
+      </c>
+      <c r="I29" t="s">
+        <v>268</v>
+      </c>
+      <c r="J29" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>45</v>
       </c>
@@ -1592,8 +2186,17 @@
       <c r="G30" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H30" t="s">
+        <v>268</v>
+      </c>
+      <c r="I30" t="s">
+        <v>268</v>
+      </c>
+      <c r="J30" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>46</v>
       </c>
@@ -1615,8 +2218,17 @@
       <c r="G31" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H31" t="s">
+        <v>268</v>
+      </c>
+      <c r="I31" t="s">
+        <v>268</v>
+      </c>
+      <c r="J31" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>47</v>
       </c>
@@ -1638,8 +2250,17 @@
       <c r="G32" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H32" t="s">
+        <v>268</v>
+      </c>
+      <c r="I32" t="s">
+        <v>268</v>
+      </c>
+      <c r="J32" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>48</v>
       </c>
@@ -1661,8 +2282,17 @@
       <c r="G33" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H33" t="s">
+        <v>268</v>
+      </c>
+      <c r="I33" t="s">
+        <v>268</v>
+      </c>
+      <c r="J33" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>49</v>
       </c>
@@ -1684,8 +2314,17 @@
       <c r="G34" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H34" t="s">
+        <v>268</v>
+      </c>
+      <c r="I34" t="s">
+        <v>268</v>
+      </c>
+      <c r="J34" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>50</v>
       </c>
@@ -1707,8 +2346,17 @@
       <c r="G35" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H35" t="s">
+        <v>268</v>
+      </c>
+      <c r="I35" t="s">
+        <v>268</v>
+      </c>
+      <c r="J35" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>51</v>
       </c>
@@ -1730,8 +2378,17 @@
       <c r="G36" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H36" t="s">
+        <v>268</v>
+      </c>
+      <c r="I36" t="s">
+        <v>268</v>
+      </c>
+      <c r="J36" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>52</v>
       </c>
@@ -1753,8 +2410,17 @@
       <c r="G37" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H37" t="s">
+        <v>268</v>
+      </c>
+      <c r="I37" t="s">
+        <v>268</v>
+      </c>
+      <c r="J37" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>53</v>
       </c>
@@ -1776,8 +2442,17 @@
       <c r="G38" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H38" t="s">
+        <v>268</v>
+      </c>
+      <c r="I38" t="s">
+        <v>268</v>
+      </c>
+      <c r="J38" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>54</v>
       </c>
@@ -1799,8 +2474,17 @@
       <c r="G39" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H39" t="s">
+        <v>268</v>
+      </c>
+      <c r="I39" t="s">
+        <v>268</v>
+      </c>
+      <c r="J39" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>55</v>
       </c>
@@ -1822,8 +2506,17 @@
       <c r="G40" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H40" t="s">
+        <v>268</v>
+      </c>
+      <c r="I40" t="s">
+        <v>268</v>
+      </c>
+      <c r="J40" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>56</v>
       </c>
@@ -1845,8 +2538,17 @@
       <c r="G41" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H41" t="s">
+        <v>268</v>
+      </c>
+      <c r="I41" t="s">
+        <v>268</v>
+      </c>
+      <c r="J41" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>57</v>
       </c>
@@ -1868,8 +2570,17 @@
       <c r="G42" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H42" t="s">
+        <v>268</v>
+      </c>
+      <c r="I42" t="s">
+        <v>268</v>
+      </c>
+      <c r="J42" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>58</v>
       </c>
@@ -1891,8 +2602,17 @@
       <c r="G43" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H43" t="s">
+        <v>268</v>
+      </c>
+      <c r="I43" t="s">
+        <v>268</v>
+      </c>
+      <c r="J43" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>59</v>
       </c>
@@ -1914,8 +2634,17 @@
       <c r="G44" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H44" t="s">
+        <v>268</v>
+      </c>
+      <c r="I44" t="s">
+        <v>268</v>
+      </c>
+      <c r="J44" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>60</v>
       </c>
@@ -1937,8 +2666,17 @@
       <c r="G45" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H45" t="s">
+        <v>268</v>
+      </c>
+      <c r="I45" t="s">
+        <v>268</v>
+      </c>
+      <c r="J45" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>61</v>
       </c>
@@ -1960,8 +2698,17 @@
       <c r="G46" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H46" t="s">
+        <v>268</v>
+      </c>
+      <c r="I46" t="s">
+        <v>268</v>
+      </c>
+      <c r="J46" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>62</v>
       </c>
@@ -1977,8 +2724,11 @@
       <c r="E47" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H47" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>63</v>
       </c>
@@ -1994,8 +2744,11 @@
       <c r="E48" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H48" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>64</v>
       </c>
@@ -2011,8 +2764,11 @@
       <c r="E49" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H49" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>65</v>
       </c>
@@ -2028,8 +2784,11 @@
       <c r="E50" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H50" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>66</v>
       </c>
@@ -2045,8 +2804,11 @@
       <c r="E51" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H51" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>67</v>
       </c>
@@ -2062,8 +2824,11 @@
       <c r="E52" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H52" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>68</v>
       </c>
@@ -2079,8 +2844,11 @@
       <c r="E53" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H53" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>69</v>
       </c>
@@ -2096,8 +2864,11 @@
       <c r="E54" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H54" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>70</v>
       </c>
@@ -2113,8 +2884,11 @@
       <c r="E55" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H55" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>71</v>
       </c>
@@ -2130,8 +2904,11 @@
       <c r="E56" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H56" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>72</v>
       </c>
@@ -2147,8 +2924,11 @@
       <c r="E57" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H57" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>73</v>
       </c>
@@ -2164,8 +2944,11 @@
       <c r="E58" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H58" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>74</v>
       </c>
@@ -2181,8 +2964,11 @@
       <c r="E59" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H59" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>76</v>
       </c>
@@ -2198,8 +2984,11 @@
       <c r="E60" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H60" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>75</v>
       </c>
@@ -2215,8 +3004,11 @@
       <c r="E61" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H61" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>77</v>
       </c>
@@ -2232,8 +3024,11 @@
       <c r="E62" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H62" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>78</v>
       </c>
@@ -2249,8 +3044,11 @@
       <c r="E63" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H63" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>79</v>
       </c>
@@ -2266,8 +3064,11 @@
       <c r="E64" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H64" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>80</v>
       </c>
@@ -2283,8 +3084,11 @@
       <c r="E65" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H65" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>81</v>
       </c>
@@ -2300,8 +3104,11 @@
       <c r="E66" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H66" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>82</v>
       </c>
@@ -2317,8 +3124,11 @@
       <c r="E67" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H67" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>83</v>
       </c>
@@ -2334,8 +3144,11 @@
       <c r="E68" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H68" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>84</v>
       </c>
@@ -2351,8 +3164,11 @@
       <c r="E69" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H69" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>85</v>
       </c>
@@ -2368,8 +3184,11 @@
       <c r="E70" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H70" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>86</v>
       </c>
@@ -2385,8 +3204,11 @@
       <c r="E71" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H71" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>87</v>
       </c>
@@ -2402,8 +3224,11 @@
       <c r="E72" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H72" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>88</v>
       </c>
@@ -2419,8 +3244,11 @@
       <c r="E73" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H73" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>89</v>
       </c>
@@ -2436,8 +3264,11 @@
       <c r="E74" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H74" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>90</v>
       </c>
@@ -2453,8 +3284,11 @@
       <c r="E75" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H75" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>91</v>
       </c>
@@ -2470,8 +3304,11 @@
       <c r="E76" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H76" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>92</v>
       </c>
@@ -2487,8 +3324,11 @@
       <c r="E77" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H77" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>93</v>
       </c>
@@ -2504,8 +3344,11 @@
       <c r="E78" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H78" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>94</v>
       </c>
@@ -2521,8 +3364,11 @@
       <c r="E79" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H79" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>95</v>
       </c>
@@ -2538,8 +3384,11 @@
       <c r="E80" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H80" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>96</v>
       </c>
@@ -2555,8 +3404,11 @@
       <c r="E81" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H81" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>97</v>
       </c>
@@ -2572,8 +3424,11 @@
       <c r="E82" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H82" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>98</v>
       </c>
@@ -2589,8 +3444,11 @@
       <c r="E83" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H83" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>99</v>
       </c>
@@ -2606,8 +3464,11 @@
       <c r="E84" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H84" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>100</v>
       </c>
@@ -2623,8 +3484,11 @@
       <c r="E85" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H85" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>101</v>
       </c>
@@ -2640,8 +3504,11 @@
       <c r="E86" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H86" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>102</v>
       </c>
@@ -2657,8 +3524,11 @@
       <c r="E87" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H87" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>103</v>
       </c>
@@ -2674,8 +3544,11 @@
       <c r="E88" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H88" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>104</v>
       </c>
@@ -2691,8 +3564,11 @@
       <c r="E89" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H89" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>105</v>
       </c>
@@ -2708,8 +3584,11 @@
       <c r="E90" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H90" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>106</v>
       </c>
@@ -2725,8 +3604,11 @@
       <c r="E91" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H91" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>107</v>
       </c>
@@ -2742,8 +3624,11 @@
       <c r="E92" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H92" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>108</v>
       </c>
@@ -2759,8 +3644,11 @@
       <c r="E93" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H93" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>109</v>
       </c>
@@ -2776,8 +3664,11 @@
       <c r="E94" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H94" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>110</v>
       </c>
@@ -2793,8 +3684,11 @@
       <c r="E95" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H95" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>111</v>
       </c>
@@ -2810,8 +3704,11 @@
       <c r="E96" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H96" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>112</v>
       </c>
@@ -2827,8 +3724,11 @@
       <c r="E97" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H97" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>113</v>
       </c>
@@ -2844,8 +3744,11 @@
       <c r="E98" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H98" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>114</v>
       </c>
@@ -2861,8 +3764,11 @@
       <c r="E99" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H99" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>115</v>
       </c>
@@ -2878,8 +3784,11 @@
       <c r="E100" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H100" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>116</v>
       </c>
@@ -2895,8 +3804,11 @@
       <c r="E101" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H101" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>117</v>
       </c>
@@ -2912,8 +3824,11 @@
       <c r="E102" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H102" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>118</v>
       </c>
@@ -2929,8 +3844,11 @@
       <c r="E103" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H103" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>119</v>
       </c>
@@ -2946,8 +3864,11 @@
       <c r="E104" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H104" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>120</v>
       </c>
@@ -2963,8 +3884,11 @@
       <c r="E105" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H105" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>121</v>
       </c>
@@ -2980,8 +3904,11 @@
       <c r="E106" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H106" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>122</v>
       </c>
@@ -2997,8 +3924,11 @@
       <c r="E107" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H107" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>123</v>
       </c>
@@ -3014,8 +3944,11 @@
       <c r="E108" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H108" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>124</v>
       </c>
@@ -3031,8 +3964,11 @@
       <c r="E109" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H109" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>125</v>
       </c>
@@ -3048,8 +3984,11 @@
       <c r="E110" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H110" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>126</v>
       </c>
@@ -3065,8 +4004,11 @@
       <c r="E111" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H111" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>127</v>
       </c>
@@ -3082,8 +4024,11 @@
       <c r="E112" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H112" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>128</v>
       </c>
@@ -3099,8 +4044,11 @@
       <c r="E113" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H113" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>129</v>
       </c>
@@ -3116,8 +4064,11 @@
       <c r="E114" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H114" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>130</v>
       </c>
@@ -3133,8 +4084,11 @@
       <c r="E115" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H115" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>131</v>
       </c>
@@ -3150,8 +4104,11 @@
       <c r="E116" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H116" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>132</v>
       </c>
@@ -3167,8 +4124,11 @@
       <c r="E117" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H117" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>133</v>
       </c>
@@ -3184,8 +4144,11 @@
       <c r="E118" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H118" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>134</v>
       </c>
@@ -3201,8 +4164,11 @@
       <c r="E119" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H119" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>135</v>
       </c>
@@ -3218,8 +4184,11 @@
       <c r="E120" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H120" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>136</v>
       </c>
@@ -3235,8 +4204,11 @@
       <c r="E121" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H121" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>137</v>
       </c>
@@ -3252,8 +4224,11 @@
       <c r="E122" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H122" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>138</v>
       </c>
@@ -3269,8 +4244,11 @@
       <c r="E123" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H123" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>139</v>
       </c>
@@ -3286,8 +4264,11 @@
       <c r="E124" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H124" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>140</v>
       </c>
@@ -3303,8 +4284,11 @@
       <c r="E125" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H125" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>141</v>
       </c>
@@ -3320,8 +4304,11 @@
       <c r="E126" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H126" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>142</v>
       </c>
@@ -3337,8 +4324,11 @@
       <c r="E127" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H127" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>143</v>
       </c>
@@ -3354,8 +4344,11 @@
       <c r="E128" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H128" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>144</v>
       </c>
@@ -3371,8 +4364,11 @@
       <c r="E129" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H129" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>145</v>
       </c>
@@ -3388,8 +4384,11 @@
       <c r="E130" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H130" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>146</v>
       </c>
@@ -3405,8 +4404,11 @@
       <c r="E131" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H131" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>147</v>
       </c>
@@ -3422,8 +4424,11 @@
       <c r="E132" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H132" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>148</v>
       </c>
@@ -3439,8 +4444,11 @@
       <c r="E133" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H133" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>149</v>
       </c>
@@ -3456,8 +4464,11 @@
       <c r="E134" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H134" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>150</v>
       </c>
@@ -3473,8 +4484,11 @@
       <c r="E135" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H135" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>151</v>
       </c>
@@ -3490,8 +4504,11 @@
       <c r="E136" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H136" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>152</v>
       </c>
@@ -3507,8 +4524,11 @@
       <c r="E137" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H137" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>153</v>
       </c>
@@ -3524,8 +4544,11 @@
       <c r="E138" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H138" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>154</v>
       </c>
@@ -3541,8 +4564,11 @@
       <c r="E139" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H139" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>155</v>
       </c>
@@ -3558,8 +4584,11 @@
       <c r="E140" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H140" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>156</v>
       </c>
@@ -3575,8 +4604,11 @@
       <c r="E141" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H141" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>157</v>
       </c>
@@ -3591,6 +4623,2493 @@
       </c>
       <c r="E142" t="s">
         <v>12</v>
+      </c>
+      <c r="H142" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A143" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D143">
+        <v>20231111</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F143">
+        <v>142</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A144" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D144">
+        <v>20231111</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F144">
+        <v>143</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A145" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D145">
+        <v>20231111</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F145">
+        <v>144</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A146" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D146">
+        <v>20231111</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F146">
+        <v>145</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A147" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D147">
+        <v>20231111</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F147">
+        <v>146</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A148" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D148">
+        <v>20231111</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F148">
+        <v>147</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A149" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D149">
+        <v>20231111</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F149">
+        <v>148</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A150" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D150">
+        <v>20231111</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F150">
+        <v>149</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A151" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D151">
+        <v>20231111</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F151">
+        <v>150</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A152" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D152">
+        <v>20231111</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F152">
+        <v>151</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A153" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D153">
+        <v>20231111</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F153">
+        <v>152</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A154" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D154">
+        <v>20231111</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F154">
+        <v>153</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A155" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D155">
+        <v>20231111</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F155">
+        <v>154</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A156" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D156">
+        <v>20231111</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F156">
+        <v>155</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A157" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D157">
+        <v>20231111</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F157">
+        <v>156</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A158" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D158">
+        <v>20231111</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F158">
+        <v>157</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A159" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D159">
+        <v>20231111</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F159">
+        <v>158</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A160" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D160">
+        <v>20231111</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F160">
+        <v>159</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A161" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D161">
+        <v>20231111</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F161">
+        <v>160</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A162" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D162">
+        <v>20231111</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F162">
+        <v>161</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A163" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D163">
+        <v>20231111</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F163">
+        <v>162</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A164" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D164">
+        <v>20231111</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F164">
+        <v>163</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A165" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D165">
+        <v>20231111</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F165">
+        <v>164</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A166" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D166">
+        <v>20231111</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F166">
+        <v>165</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A167" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D167">
+        <v>20231111</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F167">
+        <v>166</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A168" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D168">
+        <v>20231111</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F168">
+        <v>167</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A169" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D169">
+        <v>20231111</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F169">
+        <v>168</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A170" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D170">
+        <v>20231111</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F170">
+        <v>170</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A171" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D171">
+        <v>20231111</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F171">
+        <v>171</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A172" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D172">
+        <v>20231111</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F172">
+        <v>172</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A173" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D173">
+        <v>20231111</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F173">
+        <v>173</v>
+      </c>
+      <c r="G173" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A174" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D174">
+        <v>20231111</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F174">
+        <v>174</v>
+      </c>
+      <c r="G174" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A175" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D175">
+        <v>20231111</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F175">
+        <v>175</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A176" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D176">
+        <v>20231111</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F176">
+        <v>176</v>
+      </c>
+      <c r="G176" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A177" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D177">
+        <v>20231111</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F177">
+        <v>177</v>
+      </c>
+      <c r="G177" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A178" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D178">
+        <v>20231111</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F178">
+        <v>178</v>
+      </c>
+      <c r="G178" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A179" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D179">
+        <v>20231111</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F179">
+        <v>179</v>
+      </c>
+      <c r="G179" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A180" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D180">
+        <v>20231111</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F180">
+        <v>180</v>
+      </c>
+      <c r="G180" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A181" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D181">
+        <v>20231111</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F181">
+        <v>181</v>
+      </c>
+      <c r="G181" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A182" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D182">
+        <v>20231111</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F182">
+        <v>182</v>
+      </c>
+      <c r="G182" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A183" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D183">
+        <v>20231111</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F183">
+        <v>183</v>
+      </c>
+      <c r="G183" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A184" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D184">
+        <v>20231111</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F184">
+        <v>184</v>
+      </c>
+      <c r="G184" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A185" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D185">
+        <v>20231111</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F185">
+        <v>185</v>
+      </c>
+      <c r="G185" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A186" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D186">
+        <v>20231111</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F186">
+        <v>186</v>
+      </c>
+      <c r="G186" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A187" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D187">
+        <v>20231111</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F187">
+        <v>187</v>
+      </c>
+      <c r="G187" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A188" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D188">
+        <v>20231111</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F188">
+        <v>188</v>
+      </c>
+      <c r="G188" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A189" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D189">
+        <v>20231111</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F189">
+        <v>189</v>
+      </c>
+      <c r="G189" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A190" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D190">
+        <v>20231111</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F190">
+        <v>190</v>
+      </c>
+      <c r="G190" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A191" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D191">
+        <v>20231111</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F191">
+        <v>191</v>
+      </c>
+      <c r="G191" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A192" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D192">
+        <v>20231111</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F192">
+        <v>228</v>
+      </c>
+      <c r="G192" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A193" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D193">
+        <v>20231111</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F193">
+        <v>229</v>
+      </c>
+      <c r="G193" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A194" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D194">
+        <v>20231111</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F194">
+        <v>194</v>
+      </c>
+      <c r="G194" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A195" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D195">
+        <v>20231111</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F195">
+        <v>195</v>
+      </c>
+      <c r="G195" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A196" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D196">
+        <v>20231111</v>
+      </c>
+      <c r="E196" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F196">
+        <v>196</v>
+      </c>
+      <c r="G196" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A197" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D197">
+        <v>20231111</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F197">
+        <v>197</v>
+      </c>
+      <c r="G197" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A198" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D198">
+        <v>20231111</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F198">
+        <v>198</v>
+      </c>
+      <c r="G198" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A199" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D199">
+        <v>20231111</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F199">
+        <v>199</v>
+      </c>
+      <c r="G199" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A200" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D200">
+        <v>20231111</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F200">
+        <v>200</v>
+      </c>
+      <c r="G200" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A201" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D201">
+        <v>20231111</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F201">
+        <v>201</v>
+      </c>
+      <c r="G201" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A202" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D202">
+        <v>20231111</v>
+      </c>
+      <c r="E202" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F202">
+        <v>202</v>
+      </c>
+      <c r="G202" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A203" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D203">
+        <v>20231111</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F203">
+        <v>203</v>
+      </c>
+      <c r="G203" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A204" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D204">
+        <v>20231111</v>
+      </c>
+      <c r="E204" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F204">
+        <v>204</v>
+      </c>
+      <c r="G204" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A205" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D205">
+        <v>20231111</v>
+      </c>
+      <c r="E205" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F205">
+        <v>205</v>
+      </c>
+      <c r="G205" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A206" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D206">
+        <v>20231111</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F206">
+        <v>206</v>
+      </c>
+      <c r="G206" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A207" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D207">
+        <v>20231111</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F207">
+        <v>207</v>
+      </c>
+      <c r="G207" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A208" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D208">
+        <v>20231111</v>
+      </c>
+      <c r="E208" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F208">
+        <v>208</v>
+      </c>
+      <c r="G208" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A209" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D209">
+        <v>20231111</v>
+      </c>
+      <c r="E209" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F209">
+        <v>209</v>
+      </c>
+      <c r="G209" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A210" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D210">
+        <v>20231111</v>
+      </c>
+      <c r="E210" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F210">
+        <v>210</v>
+      </c>
+      <c r="G210" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A211" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D211">
+        <v>20231111</v>
+      </c>
+      <c r="E211" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F211">
+        <v>211</v>
+      </c>
+      <c r="G211" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A212" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D212">
+        <v>20231111</v>
+      </c>
+      <c r="E212" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F212">
+        <v>212</v>
+      </c>
+      <c r="G212" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A213" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D213">
+        <v>20231111</v>
+      </c>
+      <c r="E213" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F213">
+        <v>213</v>
+      </c>
+      <c r="G213" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A214" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D214">
+        <v>20231111</v>
+      </c>
+      <c r="E214" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F214">
+        <v>214</v>
+      </c>
+      <c r="G214" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A215" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D215">
+        <v>20231111</v>
+      </c>
+      <c r="E215" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F215">
+        <v>215</v>
+      </c>
+      <c r="G215" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A216" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D216">
+        <v>20231111</v>
+      </c>
+      <c r="E216" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F216">
+        <v>216</v>
+      </c>
+      <c r="G216" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A217" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D217">
+        <v>20231111</v>
+      </c>
+      <c r="E217" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F217">
+        <v>217</v>
+      </c>
+      <c r="G217" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A218" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D218">
+        <v>20231111</v>
+      </c>
+      <c r="E218" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F218">
+        <v>218</v>
+      </c>
+      <c r="G218" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A219" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D219">
+        <v>20231111</v>
+      </c>
+      <c r="E219" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F219">
+        <v>219</v>
+      </c>
+      <c r="G219" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A220" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D220">
+        <v>20231111</v>
+      </c>
+      <c r="E220" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F220">
+        <v>220</v>
+      </c>
+      <c r="G220" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A221" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D221">
+        <v>20231112</v>
+      </c>
+      <c r="E221" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F221">
+        <v>221</v>
+      </c>
+      <c r="G221" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A222" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D222">
+        <v>20231112</v>
+      </c>
+      <c r="E222" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F222">
+        <v>222</v>
+      </c>
+      <c r="G222" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A223" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D223">
+        <v>20231112</v>
+      </c>
+      <c r="E223" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F223">
+        <v>223</v>
+      </c>
+      <c r="G223" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A224" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D224">
+        <v>20231112</v>
+      </c>
+      <c r="E224" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F224">
+        <v>224</v>
+      </c>
+      <c r="G224" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A225" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D225">
+        <v>20231112</v>
+      </c>
+      <c r="E225" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F225">
+        <v>225</v>
+      </c>
+      <c r="G225" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A226" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D226">
+        <v>20231112</v>
+      </c>
+      <c r="E226" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F226">
+        <v>226</v>
+      </c>
+      <c r="G226" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A227" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D227">
+        <v>20231111</v>
+      </c>
+      <c r="E227" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F227">
+        <v>227</v>
+      </c>
+      <c r="G227" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A228" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D228">
+        <v>20231111</v>
+      </c>
+      <c r="E228" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F228">
+        <v>192</v>
+      </c>
+      <c r="G228" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A229" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D229">
+        <v>20231111</v>
+      </c>
+      <c r="E229" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F229">
+        <v>193</v>
+      </c>
+      <c r="G229" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A230" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D230">
+        <v>20231111</v>
+      </c>
+      <c r="E230" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F230">
+        <v>230</v>
+      </c>
+      <c r="G230" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A231" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D231">
+        <v>20231111</v>
+      </c>
+      <c r="E231" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F231">
+        <v>231</v>
+      </c>
+      <c r="G231" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A232" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D232">
+        <v>20231111</v>
+      </c>
+      <c r="E232" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F232">
+        <v>232</v>
+      </c>
+      <c r="G232" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A233" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D233">
+        <v>20231111</v>
+      </c>
+      <c r="E233" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F233">
+        <v>233</v>
+      </c>
+      <c r="G233" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A234" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D234">
+        <v>20231111</v>
+      </c>
+      <c r="E234" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F234">
+        <v>234</v>
+      </c>
+      <c r="G234" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A235" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D235">
+        <v>20231111</v>
+      </c>
+      <c r="E235" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F235">
+        <v>235</v>
+      </c>
+      <c r="G235" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A236" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D236">
+        <v>20231111</v>
+      </c>
+      <c r="E236" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F236">
+        <v>237</v>
+      </c>
+      <c r="G236" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A237" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D237">
+        <v>20231111</v>
+      </c>
+      <c r="E237" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F237">
+        <v>238</v>
+      </c>
+      <c r="G237" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A238" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D238">
+        <v>20231111</v>
+      </c>
+      <c r="E238" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F238">
+        <v>239</v>
+      </c>
+      <c r="G238" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A239" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D239">
+        <v>20231111</v>
+      </c>
+      <c r="E239" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F239">
+        <v>240</v>
+      </c>
+      <c r="G239" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A240" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D240">
+        <v>20231111</v>
+      </c>
+      <c r="E240" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F240">
+        <v>241</v>
+      </c>
+      <c r="G240" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A241" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D241">
+        <v>20231111</v>
+      </c>
+      <c r="E241" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F241">
+        <v>242</v>
+      </c>
+      <c r="G241" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A242" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D242">
+        <v>20231111</v>
+      </c>
+      <c r="E242" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F242">
+        <v>243</v>
+      </c>
+      <c r="G242" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A243" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D243">
+        <v>20231112</v>
+      </c>
+      <c r="E243" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F243">
+        <v>244</v>
+      </c>
+      <c r="G243" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A244" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C244" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D244">
+        <v>20231112</v>
+      </c>
+      <c r="E244" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F244">
+        <v>245</v>
+      </c>
+      <c r="G244" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A245" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C245" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D245">
+        <v>20231112</v>
+      </c>
+      <c r="E245" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F245">
+        <v>246</v>
+      </c>
+      <c r="G245" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A246" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C246" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D246">
+        <v>20231112</v>
+      </c>
+      <c r="E246" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F246">
+        <v>247</v>
+      </c>
+      <c r="G246" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A247" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B247" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C247" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D247">
+        <v>20231111</v>
+      </c>
+      <c r="E247" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F247">
+        <v>248</v>
+      </c>
+      <c r="G247" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A248" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B248" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C248" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D248">
+        <v>20231111</v>
+      </c>
+      <c r="E248" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F248">
+        <v>249</v>
+      </c>
+      <c r="G248" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A249" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C249" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D249">
+        <v>20231111</v>
+      </c>
+      <c r="E249" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F249">
+        <v>250</v>
+      </c>
+      <c r="G249" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A250" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C250" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D250">
+        <v>20231111</v>
+      </c>
+      <c r="E250" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F250">
+        <v>251</v>
+      </c>
+      <c r="G250" s="2" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>
